--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>1.1*A$1</f>
+        <f>1.1*79</f>
         <v>86.9</v>
       </c>
       <c r="E3" s="1">
@@ -624,7 +624,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">1.1*A$1</f>
+        <f t="shared" ref="D4:D38" si="0">1.1*79</f>
         <v>86.9</v>
       </c>
       <c r="E4" s="1">
@@ -1957,7 +1957,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>1.1*A$1/2</f>
+        <f>1.1*79/2</f>
         <v>43.45</v>
       </c>
       <c r="E35" s="1">
@@ -2000,7 +2000,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="8">1.1*A$1/2</f>
+        <f t="shared" ref="D36:D38" si="8">1.1*79/2</f>
         <v>43.45</v>
       </c>
       <c r="E36" s="1">

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -146,12 +146,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Тариф, руб.</t>
-  </si>
-  <si>
-    <t>Сумма, руб./кв.м.</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -164,16 +158,25 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Бондаренко</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь</t>
+  </si>
+  <si>
+    <t>Общая сумма графы "итого"</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -519,7 +522,7 @@
     <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -546,10 +549,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
@@ -558,16 +561,16 @@
         <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -624,7 +627,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">1.1*79</f>
+        <f t="shared" ref="D4:D34" si="0">1.1*79</f>
         <v>86.9</v>
       </c>
       <c r="E4" s="1">
@@ -746,7 +749,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="6"/>
@@ -2124,7 +2127,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C40" s="5">
         <f>INT(SUM(K3:K39))</f>
@@ -2133,7 +2136,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C39)</f>
@@ -2142,7 +2145,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H39)</f>
@@ -2151,7 +2154,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K39)</f>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -152,12 +152,18 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Пени за 1 день, руб.</t>
-  </si>
-  <si>
     <t>Итого, руб.</t>
   </si>
   <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
     <t>Бондаренко</t>
   </si>
   <si>
@@ -167,16 +173,10 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Средняя площадь</t>
-  </si>
-  <si>
-    <t>Общая сумма графы "итого"</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате</t>
+    <t>Общая сумма графы "итого", руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -549,10 +549,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
@@ -564,17 +564,17 @@
         <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -584,7 +584,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>1.1*79</f>
+        <f>1.1*$A$1</f>
         <v>86.9</v>
       </c>
       <c r="E3" s="1">
@@ -592,11 +592,9 @@
         <v>6083</v>
       </c>
       <c r="F3" s="4">
-        <f>DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
       <c r="G3" s="4">
-        <f>DATE(2022,9,1)</f>
         <v>44805</v>
       </c>
       <c r="H3" s="1">
@@ -616,7 +614,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -627,7 +625,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">1.1*79</f>
+        <f t="shared" ref="D4:D38" si="0">1.1*$A$1</f>
         <v>86.9</v>
       </c>
       <c r="E4" s="1">
@@ -635,38 +633,36 @@
         <v>6039.55</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F38" si="2">DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
       <c r="G4" s="4">
-        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="3">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="4">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="5">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>6039.55</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -678,38 +674,36 @@
         <v>5996.1</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5996.1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -721,38 +715,36 @@
         <v>5952.6500000000005</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5952.6500000000005</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -764,38 +756,36 @@
         <v>5909.2000000000007</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5909.2000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -807,38 +797,36 @@
         <v>5865.75</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5865.75</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -850,38 +838,36 @@
         <v>5822.3</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5822.3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -893,38 +879,36 @@
         <v>5778.85</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5778.85</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -936,38 +920,36 @@
         <v>5735.4000000000005</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5735.4000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
@@ -979,38 +961,36 @@
         <v>5691.9500000000007</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5701.9500000000007</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
@@ -1022,38 +1002,36 @@
         <v>5648.5</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5668.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
@@ -1065,38 +1043,36 @@
         <v>5605.05</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5635.05</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
@@ -1108,38 +1084,36 @@
         <v>5561.6</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5601.6</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
@@ -1151,38 +1125,36 @@
         <v>5518.1500000000005</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5568.1500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
@@ -1194,38 +1166,36 @@
         <v>5474.7000000000007</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5534.7000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
@@ -1237,38 +1207,36 @@
         <v>5431.25</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5501.25</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
@@ -1280,38 +1248,36 @@
         <v>5387.8</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5467.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
@@ -1323,38 +1289,36 @@
         <v>5344.35</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5434.35</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
@@ -1366,38 +1330,36 @@
         <v>5300.9000000000005</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5400.9000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
@@ -1409,38 +1371,36 @@
         <v>5257.4500000000007</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5367.4500000000007</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1452,38 +1412,36 @@
         <v>5214</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5334</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
@@ -1495,38 +1453,36 @@
         <v>5170.55</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5300.55</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
@@ -1538,38 +1494,36 @@
         <v>5127.1000000000004</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5267.1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
@@ -1581,38 +1535,36 @@
         <v>5083.6500000000005</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5233.6500000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
@@ -1624,38 +1576,36 @@
         <v>5040.2000000000007</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5200.2000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
@@ -1667,38 +1617,36 @@
         <v>4996.75</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5166.75</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
@@ -1710,38 +1658,36 @@
         <v>4953.3</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5133.3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
@@ -1753,38 +1699,36 @@
         <v>4909.8500000000004</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5099.8500000000004</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
@@ -1796,38 +1740,36 @@
         <v>4866.4000000000005</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5066.4000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
@@ -1839,38 +1781,36 @@
         <v>4822.9500000000007</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5032.9500000000007</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
@@ -1882,38 +1822,36 @@
         <v>4779.5</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4999.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
@@ -1925,85 +1863,81 @@
         <v>4736.05</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4966.05</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>1.1*79/2</f>
+        <f>1.1*$A$1/2</f>
         <v>43.45</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
+        <f>C35*D35</f>
         <v>2346.3000000000002</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2586.3000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="8">1.1*79/2</f>
+        <f t="shared" ref="D36:D38" si="6">1.1*$A$1/2</f>
         <v>43.45</v>
       </c>
       <c r="E36" s="1">
@@ -2011,42 +1945,40 @@
         <v>2324.5750000000003</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2574.5750000000003</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="D37" s="1">
         <f t="shared" si="6"/>
-        <v>53</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="8"/>
         <v>43.45</v>
       </c>
       <c r="E37" s="1">
@@ -2054,42 +1986,40 @@
         <v>2302.8500000000004</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2562.8500000000004</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="5"/>
+        <v>52.5</v>
+      </c>
+      <c r="D38" s="1">
         <f t="shared" si="6"/>
-        <v>52.5</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="8"/>
         <v>43.45</v>
       </c>
       <c r="E38" s="1">
@@ -2097,26 +2027,24 @@
         <v>2281.125</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="2"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2551.125</v>
       </c>
     </row>
@@ -2127,7 +2055,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" s="5">
         <f>INT(SUM(K3:K39))</f>
@@ -2136,7 +2064,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C39)</f>
@@ -2145,7 +2073,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H39)</f>
@@ -2154,7 +2082,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K39)</f>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -176,7 +176,7 @@
     <t>Общая сумма графы "итого", руб.</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -584,7 +584,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>1.1*$A$1</f>
+        <f>$A$1*1.1</f>
         <v>86.9</v>
       </c>
       <c r="E3" s="1">
@@ -625,7 +625,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">1.1*$A$1</f>
+        <f t="shared" ref="D4:D38" si="0">$A$1*1.1</f>
         <v>86.9</v>
       </c>
       <c r="E4" s="1">
@@ -633,9 +633,11 @@
         <v>6039.55</v>
       </c>
       <c r="F4" s="4">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="4">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -674,9 +676,11 @@
         <v>5996.1</v>
       </c>
       <c r="F5" s="4">
+        <f t="shared" ref="F5:F38" si="6">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -715,9 +719,11 @@
         <v>5952.6500000000005</v>
       </c>
       <c r="F6" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -756,9 +762,11 @@
         <v>5909.2000000000007</v>
       </c>
       <c r="F7" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -797,9 +805,11 @@
         <v>5865.75</v>
       </c>
       <c r="F8" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -838,9 +848,11 @@
         <v>5822.3</v>
       </c>
       <c r="F9" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -879,9 +891,11 @@
         <v>5778.85</v>
       </c>
       <c r="F10" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -920,9 +934,11 @@
         <v>5735.4000000000005</v>
       </c>
       <c r="F11" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -961,9 +977,11 @@
         <v>5691.9500000000007</v>
       </c>
       <c r="F12" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1002,9 +1020,11 @@
         <v>5648.5</v>
       </c>
       <c r="F13" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1043,9 +1063,11 @@
         <v>5605.05</v>
       </c>
       <c r="F14" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1084,9 +1106,11 @@
         <v>5561.6</v>
       </c>
       <c r="F15" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1125,9 +1149,11 @@
         <v>5518.1500000000005</v>
       </c>
       <c r="F16" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1166,9 +1192,11 @@
         <v>5474.7000000000007</v>
       </c>
       <c r="F17" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1207,9 +1235,11 @@
         <v>5431.25</v>
       </c>
       <c r="F18" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1248,9 +1278,11 @@
         <v>5387.8</v>
       </c>
       <c r="F19" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1289,9 +1321,11 @@
         <v>5344.35</v>
       </c>
       <c r="F20" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1330,9 +1364,11 @@
         <v>5300.9000000000005</v>
       </c>
       <c r="F21" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1371,9 +1407,11 @@
         <v>5257.4500000000007</v>
       </c>
       <c r="F22" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1412,9 +1450,11 @@
         <v>5214</v>
       </c>
       <c r="F23" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1453,9 +1493,11 @@
         <v>5170.55</v>
       </c>
       <c r="F24" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1494,9 +1536,11 @@
         <v>5127.1000000000004</v>
       </c>
       <c r="F25" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1535,9 +1579,11 @@
         <v>5083.6500000000005</v>
       </c>
       <c r="F26" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1576,9 +1622,11 @@
         <v>5040.2000000000007</v>
       </c>
       <c r="F27" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1617,9 +1665,11 @@
         <v>4996.75</v>
       </c>
       <c r="F28" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1658,9 +1708,11 @@
         <v>4953.3</v>
       </c>
       <c r="F29" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1699,9 +1751,11 @@
         <v>4909.8500000000004</v>
       </c>
       <c r="F30" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1740,9 +1794,11 @@
         <v>4866.4000000000005</v>
       </c>
       <c r="F31" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1781,9 +1837,11 @@
         <v>4822.9500000000007</v>
       </c>
       <c r="F32" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1822,9 +1880,11 @@
         <v>4779.5</v>
       </c>
       <c r="F33" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1863,9 +1923,11 @@
         <v>4736.05</v>
       </c>
       <c r="F34" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1896,7 +1958,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>1.1*$A$1/2</f>
+        <f>($A$1*1.1)/2</f>
         <v>43.45</v>
       </c>
       <c r="E35" s="1">
@@ -1904,9 +1966,11 @@
         <v>2346.3000000000002</v>
       </c>
       <c r="F35" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -1937,7 +2001,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="6">1.1*$A$1/2</f>
+        <f t="shared" ref="D36:D38" si="8">($A$1*1.1)/2</f>
         <v>43.45</v>
       </c>
       <c r="E36" s="1">
@@ -1945,9 +2009,11 @@
         <v>2324.5750000000003</v>
       </c>
       <c r="F36" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -1978,7 +2044,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>43.45</v>
       </c>
       <c r="E37" s="1">
@@ -1986,9 +2052,11 @@
         <v>2302.8500000000004</v>
       </c>
       <c r="F37" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2019,7 +2087,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>43.45</v>
       </c>
       <c r="E38" s="1">
@@ -2027,9 +2095,11 @@
         <v>2281.125</v>
       </c>
       <c r="F38" s="4">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -514,7 +514,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -615,6 +615,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -645,6 +646,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -658,13 +660,14 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -676,11 +679,11 @@
         <v>5996.1</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F38" si="6">$F$3</f>
+        <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -688,6 +691,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="9">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -701,13 +705,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -719,11 +724,11 @@
         <v>5952.6500000000005</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -731,6 +736,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -744,13 +750,14 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -762,11 +769,11 @@
         <v>5909.2000000000007</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -774,6 +781,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -787,13 +795,14 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -805,11 +814,11 @@
         <v>5865.75</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -817,6 +826,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -830,13 +840,14 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -848,11 +859,11 @@
         <v>5822.3</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -860,6 +871,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -873,13 +885,14 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -891,11 +904,11 @@
         <v>5778.85</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -903,6 +916,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -916,13 +930,14 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -934,11 +949,11 @@
         <v>5735.4000000000005</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -946,6 +961,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -959,13 +975,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
@@ -977,11 +994,11 @@
         <v>5691.9500000000007</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -989,6 +1006,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1002,13 +1020,14 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
@@ -1020,11 +1039,11 @@
         <v>5648.5</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1032,6 +1051,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1045,13 +1065,14 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
@@ -1063,11 +1084,11 @@
         <v>5605.05</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1075,6 +1096,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1088,13 +1110,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
@@ -1106,11 +1129,11 @@
         <v>5561.6</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1118,6 +1141,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1131,13 +1155,14 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
@@ -1149,11 +1174,11 @@
         <v>5518.1500000000005</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1161,6 +1186,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1174,13 +1200,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
@@ -1192,11 +1219,11 @@
         <v>5474.7000000000007</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1204,6 +1231,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1217,13 +1245,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
@@ -1235,11 +1264,11 @@
         <v>5431.25</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1247,6 +1276,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1260,13 +1290,14 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
@@ -1278,11 +1309,11 @@
         <v>5387.8</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1290,6 +1321,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1303,13 +1335,14 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
@@ -1321,11 +1354,11 @@
         <v>5344.35</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1333,6 +1366,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1346,13 +1380,14 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
@@ -1364,11 +1399,11 @@
         <v>5300.9000000000005</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1376,6 +1411,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1389,13 +1425,14 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
@@ -1407,11 +1444,11 @@
         <v>5257.4500000000007</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1419,6 +1456,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1432,13 +1470,14 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1450,11 +1489,11 @@
         <v>5214</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1462,6 +1501,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1475,13 +1515,14 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
@@ -1493,11 +1534,11 @@
         <v>5170.55</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1505,6 +1546,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1518,13 +1560,14 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
@@ -1536,11 +1579,11 @@
         <v>5127.1000000000004</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1548,6 +1591,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1561,13 +1605,14 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
@@ -1579,11 +1624,11 @@
         <v>5083.6500000000005</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1591,6 +1636,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1604,13 +1650,14 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
@@ -1622,11 +1669,11 @@
         <v>5040.2000000000007</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1634,6 +1681,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1647,13 +1695,14 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
@@ -1665,11 +1714,11 @@
         <v>4996.75</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1677,6 +1726,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1690,13 +1740,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
@@ -1708,11 +1759,11 @@
         <v>4953.3</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1720,6 +1771,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1733,13 +1785,14 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
@@ -1751,11 +1804,11 @@
         <v>4909.8500000000004</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1763,6 +1816,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1776,13 +1830,14 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
@@ -1794,11 +1849,11 @@
         <v>4866.4000000000005</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1806,6 +1861,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1819,13 +1875,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
@@ -1837,11 +1894,11 @@
         <v>4822.9500000000007</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1849,6 +1906,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1862,13 +1920,14 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
@@ -1880,11 +1939,11 @@
         <v>4779.5</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1892,6 +1951,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1905,13 +1965,14 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
@@ -1923,11 +1984,11 @@
         <v>4736.05</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1935,6 +1996,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1948,13 +2010,14 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
@@ -1966,11 +2029,11 @@
         <v>2346.3000000000002</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -1978,6 +2041,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -1991,17 +2055,18 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="8">($A$1*1.1)/2</f>
+        <f t="shared" ref="D36:D38" si="10">($A$1*1.1)/2</f>
         <v>43.45</v>
       </c>
       <c r="E36" s="1">
@@ -2009,11 +2074,11 @@
         <v>2324.5750000000003</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2021,6 +2086,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2034,17 +2100,18 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>43.45</v>
       </c>
       <c r="E37" s="1">
@@ -2052,11 +2119,11 @@
         <v>2302.8500000000004</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2064,6 +2131,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2077,17 +2145,18 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>43.45</v>
       </c>
       <c r="E38" s="1">
@@ -2095,11 +2164,11 @@
         <v>2281.125</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2107,6 +2176,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -140,12 +140,6 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
-    <t>Срок оплаты</t>
-  </si>
-  <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -173,10 +167,16 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Общая сумма графы "итого", руб.</t>
-  </si>
-  <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Срок оплаты, дней</t>
+  </si>
+  <si>
+    <t>Дата оплаты, дней</t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -524,8 +524,8 @@
     <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -549,28 +549,28 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="6"/>
@@ -2195,16 +2195,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="5">
-        <f>INT(SUM(K3:K39))</f>
+        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
         <v>186139</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C39)</f>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H39)</f>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K39)</f>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -140,6 +140,12 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -155,9 +161,6 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Бондаренко</t>
   </si>
   <si>
@@ -173,10 +176,7 @@
     <t>Общая сумма, руб.</t>
   </si>
   <si>
-    <t>Срок оплаты, дней</t>
-  </si>
-  <si>
-    <t>Дата оплаты, дней</t>
+    <t>Максимальная сумма просрочки, руб.</t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -549,28 +549,28 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="6"/>
@@ -2021,7 +2021,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>($A$1*1.1)/2</f>
+        <f>$A$1*1.1/2</f>
         <v>43.45</v>
       </c>
       <c r="E35" s="1">
@@ -2066,7 +2066,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">($A$1*1.1)/2</f>
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
         <v>43.45</v>
       </c>
       <c r="E36" s="1">
@@ -2195,7 +2195,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" s="5">
         <f>ROUNDDOWN(SUM(K3:K38),0)</f>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C39)</f>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H39)</f>
@@ -2222,11 +2222,11 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(K3:K39)</f>
-        <v>6083</v>
+        <f>MAX(J3:J38)</f>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2198,7 +2198,7 @@
         <v>49</v>
       </c>
       <c r="C40" s="5">
-        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
+        <f>INT(SUM(K3:K38))</f>
         <v>186139</v>
       </c>
     </row>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -514,7 +514,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -626,7 +626,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">$A$1*1.1</f>
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>86.9</v>
       </c>
       <c r="E4" s="1">
@@ -2198,8 +2198,8 @@
         <v>49</v>
       </c>
       <c r="C40" s="5">
-        <f>INT(SUM(K3:K38))</f>
-        <v>186139</v>
+        <f>SUM(K3:K38)-0.65</f>
+        <v>186139.00000000003</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -230,7 +230,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -514,7 +514,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2198,8 +2198,8 @@
         <v>49</v>
       </c>
       <c r="C40" s="5">
-        <f>SUM(K3:K38)-0.65</f>
-        <v>186139.00000000003</v>
+        <f>SUM(K3:K38)</f>
+        <v>186139.65000000002</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -230,7 +230,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -514,7 +514,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2198,8 +2198,8 @@
         <v>49</v>
       </c>
       <c r="C40" s="5">
-        <f>SUM(K3:K38)</f>
-        <v>186139.65000000002</v>
+        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
+        <v>186139</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2198,8 +2198,8 @@
         <v>49</v>
       </c>
       <c r="C40" s="5">
-        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
-        <v>186139</v>
+        <f>SUM(K3:K38)</f>
+        <v>186139.65000000002</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -513,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -2198,8 +2198,8 @@
         <v>49</v>
       </c>
       <c r="C40" s="5">
-        <f>SUM(K3:K38)</f>
-        <v>186139.65000000002</v>
+        <f>INT(SUM(K3:K38))</f>
+        <v>186139</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -183,6 +183,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -231,6 +234,7 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -513,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -594,7 +598,7 @@
       <c r="F3" s="4">
         <v>44813</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="6">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
@@ -637,8 +641,7 @@
         <f>$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="4">
-        <f>G3+1</f>
+      <c r="G4" s="6">
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -682,8 +685,7 @@
         <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="4">
-        <f t="shared" ref="G5:G38" si="8">G4+1</f>
+      <c r="G5" s="6">
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -691,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="9">$I$3</f>
+        <f t="shared" ref="I5:I38" si="8">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -727,8 +729,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G6" s="4">
-        <f t="shared" si="8"/>
+      <c r="G6" s="6">
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -736,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -772,8 +773,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G7" s="4">
-        <f t="shared" si="8"/>
+      <c r="G7" s="6">
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -817,8 +817,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G8" s="4">
-        <f t="shared" si="8"/>
+      <c r="G8" s="6">
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -826,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -862,8 +861,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G9" s="4">
-        <f t="shared" si="8"/>
+      <c r="G9" s="6">
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -871,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -907,8 +905,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G10" s="4">
-        <f t="shared" si="8"/>
+      <c r="G10" s="6">
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -916,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -952,8 +949,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G11" s="4">
-        <f t="shared" si="8"/>
+      <c r="G11" s="6">
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -961,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -997,8 +993,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" si="8"/>
+      <c r="G12" s="6">
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1006,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1042,8 +1037,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G13" s="4">
-        <f t="shared" si="8"/>
+      <c r="G13" s="6">
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1051,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1087,8 +1081,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G14" s="4">
-        <f t="shared" si="8"/>
+      <c r="G14" s="6">
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1096,7 +1089,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1132,8 +1125,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G15" s="4">
-        <f t="shared" si="8"/>
+      <c r="G15" s="6">
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1141,7 +1133,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1177,8 +1169,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G16" s="4">
-        <f t="shared" si="8"/>
+      <c r="G16" s="6">
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1186,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1222,8 +1213,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G17" s="4">
-        <f t="shared" si="8"/>
+      <c r="G17" s="6">
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1231,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1267,8 +1257,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G18" s="4">
-        <f t="shared" si="8"/>
+      <c r="G18" s="6">
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1276,7 +1265,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1312,8 +1301,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G19" s="4">
-        <f t="shared" si="8"/>
+      <c r="G19" s="6">
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1321,7 +1309,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1357,8 +1345,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G20" s="4">
-        <f t="shared" si="8"/>
+      <c r="G20" s="6">
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1366,7 +1353,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1402,8 +1389,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G21" s="4">
-        <f t="shared" si="8"/>
+      <c r="G21" s="6">
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1411,7 +1397,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1447,8 +1433,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G22" s="4">
-        <f t="shared" si="8"/>
+      <c r="G22" s="6">
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1456,7 +1441,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1492,8 +1477,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G23" s="4">
-        <f t="shared" si="8"/>
+      <c r="G23" s="6">
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1501,7 +1485,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1537,8 +1521,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G24" s="4">
-        <f t="shared" si="8"/>
+      <c r="G24" s="6">
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1546,7 +1529,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1582,8 +1565,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G25" s="4">
-        <f t="shared" si="8"/>
+      <c r="G25" s="6">
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1591,7 +1573,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1627,8 +1609,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G26" s="4">
-        <f t="shared" si="8"/>
+      <c r="G26" s="6">
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1636,7 +1617,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1672,8 +1653,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G27" s="4">
-        <f t="shared" si="8"/>
+      <c r="G27" s="6">
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1681,7 +1661,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1717,8 +1697,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G28" s="4">
-        <f t="shared" si="8"/>
+      <c r="G28" s="6">
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1726,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1762,8 +1741,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G29" s="4">
-        <f t="shared" si="8"/>
+      <c r="G29" s="6">
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1771,7 +1749,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1807,8 +1785,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G30" s="4">
-        <f t="shared" si="8"/>
+      <c r="G30" s="6">
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1816,7 +1793,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1852,8 +1829,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G31" s="4">
-        <f t="shared" si="8"/>
+      <c r="G31" s="6">
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1861,7 +1837,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1897,8 +1873,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G32" s="4">
-        <f t="shared" si="8"/>
+      <c r="G32" s="6">
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1906,7 +1881,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1942,8 +1917,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G33" s="4">
-        <f t="shared" si="8"/>
+      <c r="G33" s="6">
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1951,7 +1925,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1987,8 +1961,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G34" s="4">
-        <f t="shared" si="8"/>
+      <c r="G34" s="6">
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1996,7 +1969,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -2032,8 +2005,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G35" s="4">
-        <f t="shared" si="8"/>
+      <c r="G35" s="6">
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2041,7 +2013,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2066,7 +2038,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="9">$A$1*1.1/2</f>
         <v>43.45</v>
       </c>
       <c r="E36" s="1">
@@ -2077,8 +2049,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G36" s="4">
-        <f t="shared" si="8"/>
+      <c r="G36" s="6">
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2086,7 +2057,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2111,7 +2082,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43.45</v>
       </c>
       <c r="E37" s="1">
@@ -2122,8 +2093,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G37" s="4">
-        <f t="shared" si="8"/>
+      <c r="G37" s="6">
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2131,7 +2101,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2156,7 +2126,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43.45</v>
       </c>
       <c r="E38" s="1">
@@ -2167,8 +2137,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G38" s="4">
-        <f t="shared" si="8"/>
+      <c r="G38" s="6">
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2176,7 +2145,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2198,8 +2167,8 @@
         <v>49</v>
       </c>
       <c r="C40" s="5">
-        <f>INT(SUM(K3:K38))</f>
-        <v>186139</v>
+        <f>SUM(K3:K38)-0.65</f>
+        <v>186139.00000000003</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -642,6 +642,7 @@
         <v>44813</v>
       </c>
       <c r="G4" s="6">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -686,6 +687,7 @@
         <v>44813</v>
       </c>
       <c r="G5" s="6">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -693,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="8">$I$3</f>
+        <f t="shared" ref="I5:I38" si="9">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -730,6 +732,7 @@
         <v>44813</v>
       </c>
       <c r="G6" s="6">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -737,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -774,6 +777,7 @@
         <v>44813</v>
       </c>
       <c r="G7" s="6">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -781,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -818,6 +822,7 @@
         <v>44813</v>
       </c>
       <c r="G8" s="6">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -825,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -862,6 +867,7 @@
         <v>44813</v>
       </c>
       <c r="G9" s="6">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -869,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -906,6 +912,7 @@
         <v>44813</v>
       </c>
       <c r="G10" s="6">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -913,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -950,6 +957,7 @@
         <v>44813</v>
       </c>
       <c r="G11" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -957,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -994,6 +1002,7 @@
         <v>44813</v>
       </c>
       <c r="G12" s="6">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1001,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1038,6 +1047,7 @@
         <v>44813</v>
       </c>
       <c r="G13" s="6">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1045,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1082,6 +1092,7 @@
         <v>44813</v>
       </c>
       <c r="G14" s="6">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1089,7 +1100,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1126,6 +1137,7 @@
         <v>44813</v>
       </c>
       <c r="G15" s="6">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1133,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1170,6 +1182,7 @@
         <v>44813</v>
       </c>
       <c r="G16" s="6">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1177,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1214,6 +1227,7 @@
         <v>44813</v>
       </c>
       <c r="G17" s="6">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1221,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1258,6 +1272,7 @@
         <v>44813</v>
       </c>
       <c r="G18" s="6">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1265,7 +1280,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1302,6 +1317,7 @@
         <v>44813</v>
       </c>
       <c r="G19" s="6">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1309,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1346,6 +1362,7 @@
         <v>44813</v>
       </c>
       <c r="G20" s="6">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1353,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1390,6 +1407,7 @@
         <v>44813</v>
       </c>
       <c r="G21" s="6">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1397,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1434,6 +1452,7 @@
         <v>44813</v>
       </c>
       <c r="G22" s="6">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1441,7 +1460,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1478,6 +1497,7 @@
         <v>44813</v>
       </c>
       <c r="G23" s="6">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1485,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1522,6 +1542,7 @@
         <v>44813</v>
       </c>
       <c r="G24" s="6">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1529,7 +1550,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1566,6 +1587,7 @@
         <v>44813</v>
       </c>
       <c r="G25" s="6">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1573,7 +1595,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1610,6 +1632,7 @@
         <v>44813</v>
       </c>
       <c r="G26" s="6">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1617,7 +1640,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1654,6 +1677,7 @@
         <v>44813</v>
       </c>
       <c r="G27" s="6">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1661,7 +1685,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1698,6 +1722,7 @@
         <v>44813</v>
       </c>
       <c r="G28" s="6">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1705,7 +1730,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1742,6 +1767,7 @@
         <v>44813</v>
       </c>
       <c r="G29" s="6">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1749,7 +1775,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1786,6 +1812,7 @@
         <v>44813</v>
       </c>
       <c r="G30" s="6">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1793,7 +1820,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1830,6 +1857,7 @@
         <v>44813</v>
       </c>
       <c r="G31" s="6">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1837,7 +1865,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1874,6 +1902,7 @@
         <v>44813</v>
       </c>
       <c r="G32" s="6">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1881,7 +1910,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1918,6 +1947,7 @@
         <v>44813</v>
       </c>
       <c r="G33" s="6">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1925,7 +1955,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1962,6 +1992,7 @@
         <v>44813</v>
       </c>
       <c r="G34" s="6">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1969,7 +2000,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -2006,6 +2037,7 @@
         <v>44813</v>
       </c>
       <c r="G35" s="6">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2013,7 +2045,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2038,7 +2070,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="9">$A$1*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
         <v>43.45</v>
       </c>
       <c r="E36" s="1">
@@ -2050,6 +2082,7 @@
         <v>44813</v>
       </c>
       <c r="G36" s="6">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2057,7 +2090,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2082,7 +2115,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.45</v>
       </c>
       <c r="E37" s="1">
@@ -2094,6 +2127,7 @@
         <v>44813</v>
       </c>
       <c r="G37" s="6">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2101,7 +2135,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2126,7 +2160,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.45</v>
       </c>
       <c r="E38" s="1">
@@ -2138,6 +2172,7 @@
         <v>44813</v>
       </c>
       <c r="G38" s="6">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2145,7 +2180,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -183,9 +183,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -234,7 +231,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -518,7 +514,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -598,7 +594,7 @@
       <c r="F3" s="4">
         <v>44813</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
@@ -641,7 +637,7 @@
         <f>$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <f>G3+1</f>
         <v>44806</v>
       </c>
@@ -686,7 +682,7 @@
         <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
@@ -731,7 +727,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <f t="shared" si="8"/>
         <v>44808</v>
       </c>
@@ -776,7 +772,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <f t="shared" si="8"/>
         <v>44809</v>
       </c>
@@ -821,7 +817,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <f t="shared" si="8"/>
         <v>44810</v>
       </c>
@@ -838,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f>E8+J8</f>
         <v>5865.75</v>
       </c>
     </row>
@@ -866,7 +862,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <f t="shared" si="8"/>
         <v>44811</v>
       </c>
@@ -911,7 +907,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <f t="shared" si="8"/>
         <v>44812</v>
       </c>
@@ -956,7 +952,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
@@ -1001,7 +997,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <f t="shared" si="8"/>
         <v>44814</v>
       </c>
@@ -1046,7 +1042,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <f t="shared" si="8"/>
         <v>44815</v>
       </c>
@@ -1091,7 +1087,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <f t="shared" si="8"/>
         <v>44816</v>
       </c>
@@ -1136,7 +1132,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
@@ -1181,7 +1177,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <f t="shared" si="8"/>
         <v>44818</v>
       </c>
@@ -1226,7 +1222,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <f t="shared" si="8"/>
         <v>44819</v>
       </c>
@@ -1271,7 +1267,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="4">
         <f t="shared" si="8"/>
         <v>44820</v>
       </c>
@@ -1316,7 +1312,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="4">
         <f t="shared" si="8"/>
         <v>44821</v>
       </c>
@@ -1361,7 +1357,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="4">
         <f t="shared" si="8"/>
         <v>44822</v>
       </c>
@@ -1406,7 +1402,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="4">
         <f t="shared" si="8"/>
         <v>44823</v>
       </c>
@@ -1451,7 +1447,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="4">
         <f t="shared" si="8"/>
         <v>44824</v>
       </c>
@@ -1496,7 +1492,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="4">
         <f t="shared" si="8"/>
         <v>44825</v>
       </c>
@@ -1541,7 +1537,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="4">
         <f t="shared" si="8"/>
         <v>44826</v>
       </c>
@@ -1586,7 +1582,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="4">
         <f t="shared" si="8"/>
         <v>44827</v>
       </c>
@@ -1631,7 +1627,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <f t="shared" si="8"/>
         <v>44828</v>
       </c>
@@ -1676,7 +1672,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="4">
         <f t="shared" si="8"/>
         <v>44829</v>
       </c>
@@ -1721,7 +1717,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="4">
         <f t="shared" si="8"/>
         <v>44830</v>
       </c>
@@ -1766,7 +1762,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="4">
         <f t="shared" si="8"/>
         <v>44831</v>
       </c>
@@ -1811,7 +1807,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="4">
         <f t="shared" si="8"/>
         <v>44832</v>
       </c>
@@ -1856,7 +1852,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="4">
         <f t="shared" si="8"/>
         <v>44833</v>
       </c>
@@ -1901,7 +1897,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="4">
         <f t="shared" si="8"/>
         <v>44834</v>
       </c>
@@ -1946,7 +1942,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="4">
         <f t="shared" si="8"/>
         <v>44835</v>
       </c>
@@ -1991,7 +1987,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="4">
         <f t="shared" si="8"/>
         <v>44836</v>
       </c>
@@ -2036,7 +2032,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="4">
         <f t="shared" si="8"/>
         <v>44837</v>
       </c>
@@ -2081,7 +2077,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="4">
         <f t="shared" si="8"/>
         <v>44838</v>
       </c>
@@ -2126,7 +2122,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="4">
         <f t="shared" si="8"/>
         <v>44839</v>
       </c>
@@ -2171,7 +2167,7 @@
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="4">
         <f t="shared" si="8"/>
         <v>44840</v>
       </c>
@@ -2202,8 +2198,8 @@
         <v>49</v>
       </c>
       <c r="C40" s="5">
-        <f>SUM(K3:K38)-0.65</f>
-        <v>186139.00000000003</v>
+        <f>ROUNDUP(SUM(K3:K38),)</f>
+        <v>186140</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -514,7 +514,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>$I$3</f>
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="9">$I$3</f>
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -2198,8 +2198,8 @@
         <v>49</v>
       </c>
       <c r="C40" s="5">
-        <f>ROUNDUP(SUM(K3:K38),)</f>
-        <v>186140</v>
+        <f>TRUNC(SUM(K3:K38))</f>
+        <v>186139</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -598,7 +598,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&lt;=F3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -642,7 +642,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -2198,8 +2198,8 @@
         <v>49</v>
       </c>
       <c r="C40" s="5">
-        <f>TRUNC(SUM(K3:K38))</f>
-        <v>186139</v>
+        <f>ROUND(SUM(K3:K38),0)</f>
+        <v>186140</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -176,7 +176,7 @@
     <t>Общая сумма, руб.</t>
   </si>
   <si>
-    <t>Максимальная сумма просрочки, руб.</t>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2225,8 +2225,8 @@
         <v>50</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(J3:J38)</f>
-        <v>270</v>
+        <f>MAX(K3:K38)</f>
+        <v>6083</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -140,12 +140,6 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
-    <t>Срок оплаты</t>
-  </si>
-  <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -177,6 +171,12 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Срок оплаты, дней</t>
+  </si>
+  <si>
+    <t>Дата оплаты, дней</t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -549,28 +549,28 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="6"/>
@@ -2195,16 +2195,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="5">
-        <f>ROUND(SUM(K3:K38),0)</f>
-        <v>186140</v>
+        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
+        <v>186139</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C39)</f>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H39)</f>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -173,10 +173,10 @@
     <t>Максимальная сумма, руб.</t>
   </si>
   <si>
-    <t>Срок оплаты, дней</t>
-  </si>
-  <si>
-    <t>Дата оплаты, дней</t>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -584,7 +584,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>$A$1*1.1</f>
+        <f>IF(A3&lt;33,$A$1*1.1,$A$1*1.1/2)</f>
         <v>86.9</v>
       </c>
       <c r="E3" s="1">
@@ -626,7 +626,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
+        <f t="shared" ref="D4:D38" si="0">IF(A4&lt;33,$A$1*1.1,$A$1*1.1/2)</f>
         <v>86.9</v>
       </c>
       <c r="E4" s="1">
@@ -650,24 +650,24 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
+        <f>H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>6039.55</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -679,11 +679,11 @@
         <v>5996.1</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F38" si="7">$F$3</f>
+        <f t="shared" ref="F5:F38" si="6">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G38" si="8">G4+1</f>
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -691,28 +691,28 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="9">I4</f>
+        <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J4:J38" si="9">H5*I5</f>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5996.1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -724,11 +724,11 @@
         <v>5952.6500000000005</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -736,28 +736,28 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5952.6500000000005</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -769,11 +769,11 @@
         <v>5909.2000000000007</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -781,28 +781,28 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5909.2000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -814,11 +814,11 @@
         <v>5865.75</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -826,11 +826,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
@@ -840,14 +840,14 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -859,11 +859,11 @@
         <v>5822.3</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5822.3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -904,11 +904,11 @@
         <v>5778.85</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="8"/>
+        <f>G9+1</f>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -916,28 +916,28 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5778.85</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -949,11 +949,11 @@
         <v>5735.4000000000005</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="7"/>
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -961,28 +961,28 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5735.4000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
@@ -994,11 +994,11 @@
         <v>5691.9500000000007</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1006,28 +1006,28 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5701.9500000000007</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
@@ -1039,11 +1039,11 @@
         <v>5648.5</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1051,28 +1051,28 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5668.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
@@ -1084,11 +1084,11 @@
         <v>5605.05</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1096,28 +1096,28 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5635.05</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
@@ -1129,11 +1129,11 @@
         <v>5561.6</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1141,28 +1141,28 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5601.6</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
@@ -1174,11 +1174,11 @@
         <v>5518.1500000000005</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1186,28 +1186,28 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f>H16*I16</f>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5568.1500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
@@ -1219,11 +1219,11 @@
         <v>5474.7000000000007</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1231,28 +1231,28 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5534.7000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
@@ -1264,11 +1264,11 @@
         <v>5431.25</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1276,28 +1276,28 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="9"/>
+        <f>I17</f>
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5501.25</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
@@ -1309,40 +1309,40 @@
         <v>5387.8</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(G19&gt;F19,G19-F19,0)</f>
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5467.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
@@ -1354,11 +1354,11 @@
         <v>5344.35</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1366,28 +1366,28 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5434.35</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
@@ -1399,11 +1399,11 @@
         <v>5300.9000000000005</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1411,28 +1411,28 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="9"/>
+        <f>I20</f>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5400.9000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
@@ -1444,11 +1444,11 @@
         <v>5257.4500000000007</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1456,28 +1456,28 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5367.4500000000007</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1489,11 +1489,11 @@
         <v>5214</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1501,28 +1501,28 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5334</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
@@ -1534,11 +1534,11 @@
         <v>5170.55</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1546,28 +1546,28 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5300.55</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
@@ -1579,11 +1579,11 @@
         <v>5127.1000000000004</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1591,28 +1591,28 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5267.1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
@@ -1624,11 +1624,11 @@
         <v>5083.6500000000005</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1636,28 +1636,28 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f>H26*I26</f>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5233.6500000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
@@ -1669,11 +1669,11 @@
         <v>5040.2000000000007</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1681,28 +1681,28 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5200.2000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
@@ -1714,11 +1714,11 @@
         <v>4996.75</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1726,28 +1726,28 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5166.75</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
@@ -1759,11 +1759,11 @@
         <v>4953.3</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1771,28 +1771,28 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5133.3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
@@ -1804,11 +1804,11 @@
         <v>4909.8500000000004</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1816,28 +1816,28 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5099.8500000000004</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
@@ -1849,11 +1849,11 @@
         <v>4866.4000000000005</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1861,28 +1861,28 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5066.4000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
@@ -1894,11 +1894,11 @@
         <v>4822.9500000000007</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1906,28 +1906,28 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5032.9500000000007</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
@@ -1939,11 +1939,11 @@
         <v>4779.5</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1951,28 +1951,28 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4999.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
@@ -1984,11 +1984,11 @@
         <v>4736.05</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1996,32 +1996,32 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4966.05</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$A$1*1.1/2</f>
+        <f t="shared" si="0"/>
         <v>43.45</v>
       </c>
       <c r="E35" s="1">
@@ -2029,11 +2029,11 @@
         <v>2346.3000000000002</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2041,32 +2041,32 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2586.3000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
+        <f t="shared" si="0"/>
         <v>43.45</v>
       </c>
       <c r="E36" s="1">
@@ -2074,11 +2074,11 @@
         <v>2324.5750000000003</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2086,32 +2086,32 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2574.5750000000003</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>43.45</v>
       </c>
       <c r="E37" s="1">
@@ -2119,11 +2119,11 @@
         <v>2302.8500000000004</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2131,32 +2131,32 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2562.8500000000004</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>43.45</v>
       </c>
       <c r="E38" s="1">
@@ -2164,11 +2164,11 @@
         <v>2281.125</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2176,15 +2176,15 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2551.125</v>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="5">
-        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
+        <f>INT(SUM(K3:K38))</f>
         <v>186139</v>
       </c>
     </row>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -137,9 +137,6 @@
     <t>Федько</t>
   </si>
   <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Торощина</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -549,28 +549,28 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J4:J38" si="9">H5*I5</f>
+        <f t="shared" ref="J5:J38" si="9">H5*I5</f>
         <v>0</v>
       </c>
       <c r="K5" s="1">
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -2104,7 +2104,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2149,7 +2149,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="5">
         <f>INT(SUM(K3:K38))</f>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C39)</f>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H39)</f>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F5412E-7274-4656-8CA6-5EEDF736FF97}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,11 +511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -598,7 +599,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&gt;F3,G3-F3,0)</f>
+        <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -634,7 +635,7 @@
         <v>6039.55</v>
       </c>
       <c r="F4" s="4">
-        <f>$F$3</f>
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="4">
@@ -642,7 +643,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -679,7 +680,7 @@
         <v>5996.1</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F38" si="6">$F$3</f>
+        <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
@@ -949,7 +950,7 @@
         <v>5735.4000000000005</v>
       </c>
       <c r="F11" s="4">
-        <f>$F$3</f>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
@@ -1317,7 +1318,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f>IF(G19&gt;F19,G19-F19,0)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1699,7 +1700,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1744,7 +1745,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1789,7 +1790,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1834,7 +1835,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1879,7 +1880,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1924,7 +1925,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1969,7 +1970,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2014,7 +2015,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2059,7 +2060,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2104,7 +2105,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2149,7 +2150,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2198,7 +2199,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="5">
-        <f>INT(SUM(K3:K38))</f>
+        <f>TRUNC(SUM(K3:K38))</f>
         <v>186139</v>
       </c>
     </row>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F5412E-7274-4656-8CA6-5EEDF736FF97}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD3FE0D-EC04-4C29-8421-D91A009E88B3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -232,6 +232,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -514,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -535,9 +538,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>79</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -578,38 +591,38 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>70</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <f>IF(A3&lt;33,$A$1*1.1,$A$1*1.1/2)</f>
         <v>86.9</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <f>C3*D3</f>
         <v>6083</v>
       </c>
-      <c r="F3" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="6">
         <v>44805</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
         <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <f>E3+J3</f>
         <v>6083</v>
       </c>
@@ -619,42 +632,42 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <f t="shared" ref="D4:D38" si="0">IF(A4&lt;33,$A$1*1.1,$A$1*1.1/2)</f>
         <v>86.9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>6039.55</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <f>H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>6039.55</v>
       </c>
@@ -664,42 +677,42 @@
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>5996.1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="6">
         <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <f t="shared" ref="J5:J38" si="9">H5*I5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <f t="shared" si="3"/>
         <v>5996.1</v>
       </c>
@@ -709,42 +722,42 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>5952.6500000000005</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="7"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <f t="shared" si="3"/>
         <v>5952.6500000000005</v>
       </c>
@@ -754,42 +767,42 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>5909.2000000000007</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="7"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <f t="shared" si="3"/>
         <v>5909.2000000000007</v>
       </c>
@@ -799,42 +812,42 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>5865.75</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" si="7"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <f>E8+J8</f>
         <v>5865.75</v>
       </c>
@@ -844,42 +857,42 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>5822.3</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" si="7"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <f t="shared" si="3"/>
         <v>5822.3</v>
       </c>
@@ -889,42 +902,42 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>5778.85</v>
       </c>
-      <c r="F10" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F10" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="6">
         <f>G9+1</f>
         <v>44812</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <f t="shared" si="3"/>
         <v>5778.85</v>
       </c>
@@ -934,42 +947,42 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>5735.4000000000005</v>
       </c>
-      <c r="F11" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="F11" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <f t="shared" si="3"/>
         <v>5735.4000000000005</v>
       </c>
@@ -979,42 +992,42 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>5691.9500000000007</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="6">
         <f t="shared" si="7"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="I12" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="3"/>
         <v>5701.9500000000007</v>
       </c>
@@ -1024,42 +1037,42 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>5648.5</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="6">
         <f t="shared" si="7"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="2">
         <f t="shared" si="3"/>
         <v>5668.5</v>
       </c>
@@ -1069,42 +1082,42 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>5605.05</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="F14" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="6">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <f t="shared" si="3"/>
         <v>5635.05</v>
       </c>
@@ -1114,42 +1127,42 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>5561.6</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="F15" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="6">
         <f t="shared" si="7"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
         <f t="shared" si="3"/>
         <v>5601.6</v>
       </c>
@@ -1159,42 +1172,42 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>5518.1500000000005</v>
       </c>
-      <c r="F16" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="F16" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="6">
         <f t="shared" si="7"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
         <f>H16*I16</f>
         <v>50</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <f t="shared" si="3"/>
         <v>5568.1500000000005</v>
       </c>
@@ -1204,42 +1217,42 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>5474.7000000000007</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="F17" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="6">
         <f t="shared" si="7"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="2">
         <f t="shared" si="3"/>
         <v>5534.7000000000007</v>
       </c>
@@ -1249,42 +1262,42 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
         <v>5431.25</v>
       </c>
-      <c r="F18" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="F18" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="6">
         <f t="shared" si="7"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="2">
         <f>I17</f>
         <v>10</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <f t="shared" si="3"/>
         <v>5501.25</v>
       </c>
@@ -1294,42 +1307,42 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="1"/>
         <v>5387.8</v>
       </c>
-      <c r="F19" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F19" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" si="7"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="2">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="2">
         <f t="shared" si="3"/>
         <v>5467.8</v>
       </c>
@@ -1339,42 +1352,42 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="1"/>
         <v>5344.35</v>
       </c>
-      <c r="F20" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="F20" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="6">
         <f t="shared" si="7"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="2">
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="2">
         <f t="shared" si="3"/>
         <v>5434.35</v>
       </c>
@@ -1384,42 +1397,42 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" si="1"/>
         <v>5300.9000000000005</v>
       </c>
-      <c r="F21" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="F21" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="6">
         <f t="shared" si="7"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="2">
         <f>I20</f>
         <v>10</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="2">
         <f t="shared" si="3"/>
         <v>5400.9000000000005</v>
       </c>
@@ -1429,42 +1442,42 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="1"/>
         <v>5257.4500000000007</v>
       </c>
-      <c r="F22" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="F22" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="6">
         <f t="shared" si="7"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="9"/>
         <v>110</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="2">
         <f t="shared" si="3"/>
         <v>5367.4500000000007</v>
       </c>
@@ -1474,42 +1487,42 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="1"/>
         <v>5214</v>
       </c>
-      <c r="F23" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="F23" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="6">
         <f t="shared" si="7"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="9"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="2">
         <f t="shared" si="3"/>
         <v>5334</v>
       </c>
@@ -1519,42 +1532,42 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="1"/>
         <v>5170.55</v>
       </c>
-      <c r="F24" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="F24" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="6">
         <f t="shared" si="7"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="2">
         <f t="shared" si="9"/>
         <v>130</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="2">
         <f t="shared" si="3"/>
         <v>5300.55</v>
       </c>
@@ -1564,42 +1577,42 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="1"/>
         <v>5127.1000000000004</v>
       </c>
-      <c r="F25" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="F25" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="6">
         <f t="shared" si="7"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="2">
         <f t="shared" si="3"/>
         <v>5267.1</v>
       </c>
@@ -1609,42 +1622,42 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="1"/>
         <v>5083.6500000000005</v>
       </c>
-      <c r="F26" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="F26" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="6">
         <f t="shared" si="7"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="2">
         <f>H26*I26</f>
         <v>150</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="2">
         <f t="shared" si="3"/>
         <v>5233.6500000000005</v>
       </c>
@@ -1654,42 +1667,42 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="1"/>
         <v>5040.2000000000007</v>
       </c>
-      <c r="F27" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="F27" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="6">
         <f t="shared" si="7"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="9"/>
         <v>160</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="2">
         <f t="shared" si="3"/>
         <v>5200.2000000000007</v>
       </c>
@@ -1699,42 +1712,42 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E28" s="2">
         <f t="shared" si="1"/>
         <v>4996.75</v>
       </c>
-      <c r="F28" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="F28" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="6">
         <f t="shared" si="7"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="2">
         <f t="shared" si="9"/>
         <v>170</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="2">
         <f t="shared" si="3"/>
         <v>5166.75</v>
       </c>
@@ -1744,42 +1757,42 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="1"/>
         <v>4953.3</v>
       </c>
-      <c r="F29" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="F29" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="6">
         <f t="shared" si="7"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="9"/>
         <v>180</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="2">
         <f t="shared" si="3"/>
         <v>5133.3</v>
       </c>
@@ -1789,42 +1802,42 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="1"/>
         <v>4909.8500000000004</v>
       </c>
-      <c r="F30" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="F30" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="6">
         <f t="shared" si="7"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="I30" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="2">
         <f t="shared" si="9"/>
         <v>190</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="2">
         <f t="shared" si="3"/>
         <v>5099.8500000000004</v>
       </c>
@@ -1834,42 +1847,42 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="1"/>
         <v>4866.4000000000005</v>
       </c>
-      <c r="F31" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="F31" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="6">
         <f t="shared" si="7"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="I31" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="2">
         <f t="shared" si="9"/>
         <v>200</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="2">
         <f t="shared" si="3"/>
         <v>5066.4000000000005</v>
       </c>
@@ -1879,42 +1892,42 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E32" s="2">
         <f t="shared" si="1"/>
         <v>4822.9500000000007</v>
       </c>
-      <c r="F32" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="F32" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="6">
         <f t="shared" si="7"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="2">
         <f t="shared" si="9"/>
         <v>210</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="2">
         <f t="shared" si="3"/>
         <v>5032.9500000000007</v>
       </c>
@@ -1924,42 +1937,42 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E33" s="2">
         <f t="shared" si="1"/>
         <v>4779.5</v>
       </c>
-      <c r="F33" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="F33" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="6">
         <f t="shared" si="7"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="2">
         <f t="shared" si="9"/>
         <v>220</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="2">
         <f t="shared" si="3"/>
         <v>4999.5</v>
       </c>
@@ -1969,42 +1982,42 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E34" s="2">
         <f t="shared" si="1"/>
         <v>4736.05</v>
       </c>
-      <c r="F34" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="F34" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="6">
         <f t="shared" si="7"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="2">
         <f t="shared" si="9"/>
         <v>230</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="2">
         <f t="shared" si="3"/>
         <v>4966.05</v>
       </c>
@@ -2014,42 +2027,42 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <f t="shared" si="0"/>
         <v>43.45</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <f>C35*D35</f>
         <v>2346.3000000000002</v>
       </c>
-      <c r="F35" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="F35" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="6">
         <f t="shared" si="7"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="2">
         <f t="shared" si="9"/>
         <v>240</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="2">
         <f t="shared" si="3"/>
         <v>2586.3000000000002</v>
       </c>
@@ -2059,42 +2072,42 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <f t="shared" si="0"/>
         <v>43.45</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <f t="shared" si="1"/>
         <v>2324.5750000000003</v>
       </c>
-      <c r="F36" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="F36" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="6">
         <f t="shared" si="7"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="2">
         <f t="shared" si="9"/>
         <v>250</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="2">
         <f t="shared" si="3"/>
         <v>2574.5750000000003</v>
       </c>
@@ -2104,42 +2117,42 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <f t="shared" si="0"/>
         <v>43.45</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <f t="shared" si="1"/>
         <v>2302.8500000000004</v>
       </c>
-      <c r="F37" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="F37" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="6">
         <f t="shared" si="7"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="2">
         <f t="shared" si="9"/>
         <v>260</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="2">
         <f t="shared" si="3"/>
         <v>2562.8500000000004</v>
       </c>
@@ -2149,42 +2162,42 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <f t="shared" si="0"/>
         <v>43.45</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <f t="shared" si="1"/>
         <v>2281.125</v>
       </c>
-      <c r="F38" s="4">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="4">
+      <c r="F38" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="6">
         <f t="shared" si="7"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I38" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="2">
         <f t="shared" si="9"/>
         <v>270</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="2">
         <f t="shared" si="3"/>
         <v>2551.125</v>
       </c>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD3FE0D-EC04-4C29-8421-D91A009E88B3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509C2C7A-2B6D-4CE9-8A75-B43F07440C9C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,6 +184,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,10 +234,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -517,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -605,10 +608,10 @@
         <f>C3*D3</f>
         <v>6083</v>
       </c>
-      <c r="F3" s="6">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="5">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="5">
         <v>44805</v>
       </c>
       <c r="H3" s="2">
@@ -647,11 +650,11 @@
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>6039.55</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f>G3+1</f>
         <v>44806</v>
       </c>
@@ -692,11 +695,11 @@
         <f t="shared" si="1"/>
         <v>5996.1</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
@@ -737,11 +740,11 @@
         <f t="shared" si="1"/>
         <v>5952.6500000000005</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="7"/>
         <v>44808</v>
       </c>
@@ -782,11 +785,11 @@
         <f t="shared" si="1"/>
         <v>5909.2000000000007</v>
       </c>
-      <c r="F7" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="7"/>
         <v>44809</v>
       </c>
@@ -827,11 +830,11 @@
         <f t="shared" si="1"/>
         <v>5865.75</v>
       </c>
-      <c r="F8" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="7"/>
         <v>44810</v>
       </c>
@@ -872,11 +875,11 @@
         <f t="shared" si="1"/>
         <v>5822.3</v>
       </c>
-      <c r="F9" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="7"/>
         <v>44811</v>
       </c>
@@ -917,11 +920,11 @@
         <f t="shared" si="1"/>
         <v>5778.85</v>
       </c>
-      <c r="F10" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="5">
         <f>G9+1</f>
         <v>44812</v>
       </c>
@@ -962,11 +965,11 @@
         <f t="shared" si="1"/>
         <v>5735.4000000000005</v>
       </c>
-      <c r="F11" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="F11" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
@@ -1007,11 +1010,11 @@
         <f t="shared" si="1"/>
         <v>5691.9500000000007</v>
       </c>
-      <c r="F12" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F12" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="7"/>
         <v>44814</v>
       </c>
@@ -1052,11 +1055,11 @@
         <f t="shared" si="1"/>
         <v>5648.5</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="F13" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="7"/>
         <v>44815</v>
       </c>
@@ -1097,11 +1100,11 @@
         <f t="shared" si="1"/>
         <v>5605.05</v>
       </c>
-      <c r="F14" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="F14" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
@@ -1142,11 +1145,11 @@
         <f t="shared" si="1"/>
         <v>5561.6</v>
       </c>
-      <c r="F15" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="F15" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="7"/>
         <v>44817</v>
       </c>
@@ -1187,11 +1190,11 @@
         <f t="shared" si="1"/>
         <v>5518.1500000000005</v>
       </c>
-      <c r="F16" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="7"/>
         <v>44818</v>
       </c>
@@ -1232,11 +1235,11 @@
         <f t="shared" si="1"/>
         <v>5474.7000000000007</v>
       </c>
-      <c r="F17" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="F17" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="7"/>
         <v>44819</v>
       </c>
@@ -1277,11 +1280,11 @@
         <f t="shared" si="1"/>
         <v>5431.25</v>
       </c>
-      <c r="F18" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="F18" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="7"/>
         <v>44820</v>
       </c>
@@ -1322,11 +1325,11 @@
         <f t="shared" si="1"/>
         <v>5387.8</v>
       </c>
-      <c r="F19" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="F19" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="7"/>
         <v>44821</v>
       </c>
@@ -1367,11 +1370,11 @@
         <f t="shared" si="1"/>
         <v>5344.35</v>
       </c>
-      <c r="F20" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="F20" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="7"/>
         <v>44822</v>
       </c>
@@ -1412,11 +1415,11 @@
         <f t="shared" si="1"/>
         <v>5300.9000000000005</v>
       </c>
-      <c r="F21" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="F21" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="7"/>
         <v>44823</v>
       </c>
@@ -1457,11 +1460,11 @@
         <f t="shared" si="1"/>
         <v>5257.4500000000007</v>
       </c>
-      <c r="F22" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="F22" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="7"/>
         <v>44824</v>
       </c>
@@ -1502,11 +1505,11 @@
         <f t="shared" si="1"/>
         <v>5214</v>
       </c>
-      <c r="F23" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="F23" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="7"/>
         <v>44825</v>
       </c>
@@ -1547,11 +1550,11 @@
         <f t="shared" si="1"/>
         <v>5170.55</v>
       </c>
-      <c r="F24" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="F24" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="7"/>
         <v>44826</v>
       </c>
@@ -1592,11 +1595,11 @@
         <f t="shared" si="1"/>
         <v>5127.1000000000004</v>
       </c>
-      <c r="F25" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="F25" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="7"/>
         <v>44827</v>
       </c>
@@ -1637,11 +1640,11 @@
         <f t="shared" si="1"/>
         <v>5083.6500000000005</v>
       </c>
-      <c r="F26" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="F26" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="5">
         <f t="shared" si="7"/>
         <v>44828</v>
       </c>
@@ -1682,11 +1685,11 @@
         <f t="shared" si="1"/>
         <v>5040.2000000000007</v>
       </c>
-      <c r="F27" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="F27" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="5">
         <f t="shared" si="7"/>
         <v>44829</v>
       </c>
@@ -1727,11 +1730,11 @@
         <f t="shared" si="1"/>
         <v>4996.75</v>
       </c>
-      <c r="F28" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="F28" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="7"/>
         <v>44830</v>
       </c>
@@ -1772,11 +1775,11 @@
         <f t="shared" si="1"/>
         <v>4953.3</v>
       </c>
-      <c r="F29" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="6">
+      <c r="F29" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="7"/>
         <v>44831</v>
       </c>
@@ -1817,11 +1820,11 @@
         <f t="shared" si="1"/>
         <v>4909.8500000000004</v>
       </c>
-      <c r="F30" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="F30" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="5">
         <f t="shared" si="7"/>
         <v>44832</v>
       </c>
@@ -1862,11 +1865,11 @@
         <f t="shared" si="1"/>
         <v>4866.4000000000005</v>
       </c>
-      <c r="F31" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="6">
+      <c r="F31" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="5">
         <f t="shared" si="7"/>
         <v>44833</v>
       </c>
@@ -1907,11 +1910,11 @@
         <f t="shared" si="1"/>
         <v>4822.9500000000007</v>
       </c>
-      <c r="F32" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="F32" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="5">
         <f t="shared" si="7"/>
         <v>44834</v>
       </c>
@@ -1952,11 +1955,11 @@
         <f t="shared" si="1"/>
         <v>4779.5</v>
       </c>
-      <c r="F33" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="6">
+      <c r="F33" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="5">
         <f t="shared" si="7"/>
         <v>44835</v>
       </c>
@@ -1997,11 +2000,11 @@
         <f t="shared" si="1"/>
         <v>4736.05</v>
       </c>
-      <c r="F34" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="6">
+      <c r="F34" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="5">
         <f t="shared" si="7"/>
         <v>44836</v>
       </c>
@@ -2042,11 +2045,11 @@
         <f>C35*D35</f>
         <v>2346.3000000000002</v>
       </c>
-      <c r="F35" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="6">
+      <c r="F35" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="5">
         <f t="shared" si="7"/>
         <v>44837</v>
       </c>
@@ -2087,11 +2090,11 @@
         <f t="shared" si="1"/>
         <v>2324.5750000000003</v>
       </c>
-      <c r="F36" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="6">
+      <c r="F36" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="5">
         <f t="shared" si="7"/>
         <v>44838</v>
       </c>
@@ -2132,11 +2135,11 @@
         <f t="shared" si="1"/>
         <v>2302.8500000000004</v>
       </c>
-      <c r="F37" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="F37" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="5">
         <f t="shared" si="7"/>
         <v>44839</v>
       </c>
@@ -2177,11 +2180,11 @@
         <f t="shared" si="1"/>
         <v>2281.125</v>
       </c>
-      <c r="F38" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="F38" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="5">
         <f t="shared" si="7"/>
         <v>44840</v>
       </c>
@@ -2211,7 +2214,7 @@
       <c r="B40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="6">
         <f>TRUNC(SUM(K3:K38))</f>
         <v>186139</v>
       </c>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509C2C7A-2B6D-4CE9-8A75-B43F07440C9C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5326EBE-66F0-448B-9536-8686030C2334}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -520,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5326EBE-66F0-448B-9536-8686030C2334}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D375BE5-0370-410B-9FDF-32EE74608E51}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ _₽"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -237,7 +237,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D375BE5-0370-410B-9FDF-32EE74608E51}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -183,9 +182,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -237,7 +236,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -517,11 +516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +29,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -177,15 +174,15 @@
   </si>
   <si>
     <t>Торощина</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -233,10 +230,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -519,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,72 +555,72 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
         <v>70</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <f>IF(A3&lt;33,$A$1*1.1,$A$1*1.1/2)</f>
         <v>86.9</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="6">
         <f>C3*D3</f>
         <v>6083</v>
       </c>
-      <c r="F3" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="7">
         <v>44805</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="6">
         <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="2">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="I3" s="6">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6">
         <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="6">
         <f>E3+J3</f>
         <v>6083</v>
       </c>
@@ -634,42 +630,42 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <f t="shared" ref="D4:D38" si="0">IF(A4&lt;33,$A$1*1.1,$A$1*1.1/2)</f>
         <v>86.9</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>6039.55</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="7">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="6">
         <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="6">
         <f>H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="6">
         <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>6039.55</v>
       </c>
@@ -679,42 +675,42 @@
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E5" s="6">
         <f t="shared" si="1"/>
         <v>5996.1</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="7">
         <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="6">
         <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="6">
         <f t="shared" ref="J5:J38" si="9">H5*I5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="6">
         <f t="shared" si="3"/>
         <v>5996.1</v>
       </c>
@@ -724,42 +720,42 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E6" s="6">
         <f t="shared" si="1"/>
         <v>5952.6500000000005</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="7"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="I6" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="6">
         <f t="shared" si="3"/>
         <v>5952.6500000000005</v>
       </c>
@@ -769,42 +765,42 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" si="1"/>
         <v>5909.2000000000007</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="7"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="I7" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="6">
         <f t="shared" si="3"/>
         <v>5909.2000000000007</v>
       </c>
@@ -814,42 +810,42 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E8" s="6">
         <f t="shared" si="1"/>
         <v>5865.75</v>
       </c>
-      <c r="F8" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="7">
         <f t="shared" si="7"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="I8" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="6">
         <f>E8+J8</f>
         <v>5865.75</v>
       </c>
@@ -859,42 +855,42 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E9" s="6">
         <f t="shared" si="1"/>
         <v>5822.3</v>
       </c>
-      <c r="F9" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="7">
         <f t="shared" si="7"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="I9" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="6">
         <f t="shared" si="3"/>
         <v>5822.3</v>
       </c>
@@ -904,42 +900,42 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E10" s="6">
         <f t="shared" si="1"/>
         <v>5778.85</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="7">
         <f>G9+1</f>
         <v>44812</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="I10" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="6">
         <f t="shared" si="3"/>
         <v>5778.85</v>
       </c>
@@ -949,42 +945,42 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E11" s="6">
         <f t="shared" si="1"/>
         <v>5735.4000000000005</v>
       </c>
-      <c r="F11" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="F11" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="I11" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="6">
         <f t="shared" si="3"/>
         <v>5735.4000000000005</v>
       </c>
@@ -994,42 +990,42 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E12" s="6">
         <f t="shared" si="1"/>
         <v>5691.9500000000007</v>
       </c>
-      <c r="F12" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="7">
         <f t="shared" si="7"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="I12" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="6">
         <f t="shared" si="3"/>
         <v>5701.9500000000007</v>
       </c>
@@ -1039,42 +1035,42 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E13" s="6">
         <f t="shared" si="1"/>
         <v>5648.5</v>
       </c>
-      <c r="F13" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="7">
         <f t="shared" si="7"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="I13" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="6">
         <f t="shared" si="3"/>
         <v>5668.5</v>
       </c>
@@ -1084,42 +1080,42 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E14" s="6">
         <f t="shared" si="1"/>
         <v>5605.05</v>
       </c>
-      <c r="F14" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="7">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="I14" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="6">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="6">
         <f t="shared" si="3"/>
         <v>5635.05</v>
       </c>
@@ -1129,42 +1125,42 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E15" s="6">
         <f t="shared" si="1"/>
         <v>5561.6</v>
       </c>
-      <c r="F15" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="7">
         <f t="shared" si="7"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="I15" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="6">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="6">
         <f t="shared" si="3"/>
         <v>5601.6</v>
       </c>
@@ -1174,42 +1170,42 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E16" s="6">
         <f t="shared" si="1"/>
         <v>5518.1500000000005</v>
       </c>
-      <c r="F16" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="7">
         <f t="shared" si="7"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="I16" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="6">
         <f>H16*I16</f>
         <v>50</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="6">
         <f t="shared" si="3"/>
         <v>5568.1500000000005</v>
       </c>
@@ -1219,42 +1215,42 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E17" s="6">
         <f t="shared" si="1"/>
         <v>5474.7000000000007</v>
       </c>
-      <c r="F17" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="7">
         <f t="shared" si="7"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="I17" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="6">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="6">
         <f t="shared" si="3"/>
         <v>5534.7000000000007</v>
       </c>
@@ -1264,42 +1260,42 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E18" s="6">
         <f t="shared" si="1"/>
         <v>5431.25</v>
       </c>
-      <c r="F18" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="7">
         <f t="shared" si="7"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="6">
         <f>I17</f>
         <v>10</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="6">
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="6">
         <f t="shared" si="3"/>
         <v>5501.25</v>
       </c>
@@ -1309,42 +1305,42 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E19" s="6">
         <f t="shared" si="1"/>
         <v>5387.8</v>
       </c>
-      <c r="F19" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="7">
         <f t="shared" si="7"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="6">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="I19" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="6">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="6">
         <f t="shared" si="3"/>
         <v>5467.8</v>
       </c>
@@ -1354,42 +1350,42 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="6">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E20" s="6">
         <f t="shared" si="1"/>
         <v>5344.35</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="7">
         <f t="shared" si="7"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="I20" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="6">
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="6">
         <f t="shared" si="3"/>
         <v>5434.35</v>
       </c>
@@ -1399,42 +1395,42 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E21" s="6">
         <f t="shared" si="1"/>
         <v>5300.9000000000005</v>
       </c>
-      <c r="F21" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="7">
         <f t="shared" si="7"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="H21" s="6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="6">
         <f>I20</f>
         <v>10</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="6">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="6">
         <f t="shared" si="3"/>
         <v>5400.9000000000005</v>
       </c>
@@ -1444,42 +1440,42 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E22" s="6">
         <f t="shared" si="1"/>
         <v>5257.4500000000007</v>
       </c>
-      <c r="F22" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="7">
         <f t="shared" si="7"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="6">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="2">
+      <c r="I22" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="6">
         <f t="shared" si="9"/>
         <v>110</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="6">
         <f t="shared" si="3"/>
         <v>5367.4500000000007</v>
       </c>
@@ -1489,42 +1485,42 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E23" s="6">
         <f t="shared" si="1"/>
         <v>5214</v>
       </c>
-      <c r="F23" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="7">
         <f t="shared" si="7"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="6">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="I23" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="6">
         <f t="shared" si="9"/>
         <v>120</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="6">
         <f t="shared" si="3"/>
         <v>5334</v>
       </c>
@@ -1534,42 +1530,42 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="6">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E24" s="6">
         <f t="shared" si="1"/>
         <v>5170.55</v>
       </c>
-      <c r="F24" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="7">
         <f t="shared" si="7"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="6">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="I24" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="6">
         <f t="shared" si="9"/>
         <v>130</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="6">
         <f t="shared" si="3"/>
         <v>5300.55</v>
       </c>
@@ -1579,42 +1575,42 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="6">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E25" s="6">
         <f t="shared" si="1"/>
         <v>5127.1000000000004</v>
       </c>
-      <c r="F25" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="7">
         <f t="shared" si="7"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="I25" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="6">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="6">
         <f t="shared" si="3"/>
         <v>5267.1</v>
       </c>
@@ -1624,42 +1620,42 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="6">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E26" s="6">
         <f t="shared" si="1"/>
         <v>5083.6500000000005</v>
       </c>
-      <c r="F26" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="7">
         <f t="shared" si="7"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="6">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="I26" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="6">
         <f>H26*I26</f>
         <v>150</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="6">
         <f t="shared" si="3"/>
         <v>5233.6500000000005</v>
       </c>
@@ -1669,42 +1665,42 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="6">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D27" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E27" s="6">
         <f t="shared" si="1"/>
         <v>5040.2000000000007</v>
       </c>
-      <c r="F27" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="7">
         <f t="shared" si="7"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="6">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="2">
+      <c r="I27" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="6">
         <f t="shared" si="9"/>
         <v>160</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="6">
         <f t="shared" si="3"/>
         <v>5200.2000000000007</v>
       </c>
@@ -1714,42 +1710,42 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="B28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="6">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D28" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E28" s="6">
         <f t="shared" si="1"/>
         <v>4996.75</v>
       </c>
-      <c r="F28" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="7">
         <f t="shared" si="7"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="6">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="I28" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="6">
         <f t="shared" si="9"/>
         <v>170</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="6">
         <f t="shared" si="3"/>
         <v>5166.75</v>
       </c>
@@ -1759,42 +1755,42 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="6">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D29" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E29" s="6">
         <f t="shared" si="1"/>
         <v>4953.3</v>
       </c>
-      <c r="F29" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="7">
         <f t="shared" si="7"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="6">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="I29" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="6">
         <f t="shared" si="9"/>
         <v>180</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="6">
         <f t="shared" si="3"/>
         <v>5133.3</v>
       </c>
@@ -1804,42 +1800,42 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="6">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="D30" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E30" s="6">
         <f t="shared" si="1"/>
         <v>4909.8500000000004</v>
       </c>
-      <c r="F30" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="7">
         <f t="shared" si="7"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="6">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="2">
+      <c r="I30" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="6">
         <f t="shared" si="9"/>
         <v>190</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="6">
         <f t="shared" si="3"/>
         <v>5099.8500000000004</v>
       </c>
@@ -1849,42 +1845,42 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="6">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="D31" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E31" s="6">
         <f t="shared" si="1"/>
         <v>4866.4000000000005</v>
       </c>
-      <c r="F31" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="7">
         <f t="shared" si="7"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="I31" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="6">
         <f t="shared" si="9"/>
         <v>200</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="6">
         <f t="shared" si="3"/>
         <v>5066.4000000000005</v>
       </c>
@@ -1894,42 +1890,42 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E32" s="6">
         <f t="shared" si="1"/>
         <v>4822.9500000000007</v>
       </c>
-      <c r="F32" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="7">
         <f t="shared" si="7"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="6">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="2">
+      <c r="I32" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="6">
         <f t="shared" si="9"/>
         <v>210</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="6">
         <f t="shared" si="3"/>
         <v>5032.9500000000007</v>
       </c>
@@ -1939,42 +1935,42 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="B33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="6">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E33" s="6">
         <f t="shared" si="1"/>
         <v>4779.5</v>
       </c>
-      <c r="F33" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="7">
         <f t="shared" si="7"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="6">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="2">
+      <c r="I33" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="6">
         <f t="shared" si="9"/>
         <v>220</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="6">
         <f t="shared" si="3"/>
         <v>4999.5</v>
       </c>
@@ -1984,42 +1980,42 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="B34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="6">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="6">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E34" s="6">
         <f t="shared" si="1"/>
         <v>4736.05</v>
       </c>
-      <c r="F34" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="7">
         <f t="shared" si="7"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="6">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="2">
+      <c r="I34" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="6">
         <f t="shared" si="9"/>
         <v>230</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="6">
         <f t="shared" si="3"/>
         <v>4966.05</v>
       </c>
@@ -2029,42 +2025,42 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="B35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="6">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="6">
         <f t="shared" si="0"/>
         <v>43.45</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="6">
         <f>C35*D35</f>
         <v>2346.3000000000002</v>
       </c>
-      <c r="F35" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="7">
         <f t="shared" si="7"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="6">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="2">
+      <c r="I35" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="6">
         <f t="shared" si="9"/>
         <v>240</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="6">
         <f t="shared" si="3"/>
         <v>2586.3000000000002</v>
       </c>
@@ -2074,42 +2070,42 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="B36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="6">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="6">
         <f t="shared" si="0"/>
         <v>43.45</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="6">
         <f t="shared" si="1"/>
         <v>2324.5750000000003</v>
       </c>
-      <c r="F36" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="7">
         <f t="shared" si="7"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="6">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="2">
+      <c r="I36" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="6">
         <f t="shared" si="9"/>
         <v>250</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="6">
         <f t="shared" si="3"/>
         <v>2574.5750000000003</v>
       </c>
@@ -2119,42 +2115,42 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2">
+      <c r="B37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="6">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="6">
         <f t="shared" si="0"/>
         <v>43.45</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="6">
         <f t="shared" si="1"/>
         <v>2302.8500000000004</v>
       </c>
-      <c r="F37" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="7">
         <f t="shared" si="7"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="6">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="2">
+      <c r="I37" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="6">
         <f t="shared" si="9"/>
         <v>260</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="6">
         <f t="shared" si="3"/>
         <v>2562.8500000000004</v>
       </c>
@@ -2164,42 +2160,42 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="2">
+      <c r="B38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="6">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="6">
         <f t="shared" si="0"/>
         <v>43.45</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="6">
         <f t="shared" si="1"/>
         <v>2281.125</v>
       </c>
-      <c r="F38" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="7">
         <f t="shared" si="7"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="6">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="2">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="I38" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="6">
         <f t="shared" si="9"/>
         <v>270</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="6">
         <f t="shared" si="3"/>
         <v>2551.125</v>
       </c>
@@ -2211,16 +2207,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="6">
+        <v>45</v>
+      </c>
+      <c r="C40" s="5">
         <f>TRUNC(SUM(K3:K38))</f>
         <v>186139</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C39)</f>
@@ -2229,7 +2225,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H39)</f>
@@ -2238,7 +2234,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -596,7 +596,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="6">
-        <f>IF(A3&lt;33,$A$1*1.1,$A$1*1.1/2)</f>
+        <f>$A$1*1.1</f>
         <v>86.9</v>
       </c>
       <c r="E3" s="6">
@@ -638,7 +638,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D38" si="0">IF(A4&lt;33,$A$1*1.1,$A$1*1.1/2)</f>
+        <f t="shared" ref="D4:D38" si="0">$A$1*1.1</f>
         <v>86.9</v>
       </c>
       <c r="E4" s="6">
@@ -2033,7 +2033,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="0"/>
+        <f>$A$1*1.1/2</f>
         <v>43.45</v>
       </c>
       <c r="E35" s="6">
@@ -2078,7 +2078,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
         <v>43.45</v>
       </c>
       <c r="E36" s="6">
@@ -2123,7 +2123,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>43.45</v>
       </c>
       <c r="E37" s="6">
@@ -2168,7 +2168,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>43.45</v>
       </c>
       <c r="E38" s="6">

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -638,7 +638,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D38" si="0">$A$1*1.1</f>
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>86.9</v>
       </c>
       <c r="E4" s="6">
@@ -2033,7 +2033,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="6">
-        <f>$A$1*1.1/2</f>
+        <f>$D$34/2</f>
         <v>43.45</v>
       </c>
       <c r="E35" s="6">
@@ -2078,7 +2078,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="10">$D$34/2</f>
         <v>43.45</v>
       </c>
       <c r="E36" s="6">
@@ -2206,7 +2206,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="5">
@@ -2215,7 +2215,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="1">
@@ -2224,20 +2224,20 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="1">
-        <f>MAX(H3:H39)</f>
+        <f>MAXA(H3:H39)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(K3:K38)</f>
+        <f>LARGE(K3:K38,1)</f>
         <v>6083</v>
       </c>
     </row>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2206,7 +2206,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="5">
@@ -2215,29 +2215,29 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="1">
-        <f>AVERAGE(C3:C39)</f>
+        <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="1">
-        <f>MAXA(H3:H39)</f>
+        <f>MAX(H:H)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="1">
-        <f>LARGE(K3:K38,1)</f>
+        <f>MAX(E:E)</f>
         <v>6083</v>
       </c>
     </row>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2033,7 +2033,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="6">
-        <f>$D$34/2</f>
+        <f>($A$1*1.1)/2</f>
         <v>43.45</v>
       </c>
       <c r="E35" s="6">
@@ -2078,7 +2078,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" ref="D36:D38" si="10">$D$34/2</f>
+        <f t="shared" ref="D36:D38" si="10">($A$1*1.1)/2</f>
         <v>43.45</v>
       </c>
       <c r="E36" s="6">
@@ -2237,8 +2237,8 @@
         <v>46</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(E:E)</f>
-        <v>6083</v>
+        <f>MAX(J:J)</f>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2219,7 +2219,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="1">
-        <f>AVERAGE(C3:C38)</f>
+        <f>SUM(C3:C38)/COUNT(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
@@ -2237,8 +2237,8 @@
         <v>46</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(J:J)</f>
-        <v>270</v>
+        <f>MAX(K3:K38)</f>
+        <v>6083</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -515,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -2228,7 +2228,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="1">
-        <f>MAX(H:H)</f>
+        <f>MAXA(H:H)</f>
         <v>27</v>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(K3:K38)</f>
+        <f>MAXA(K:K)</f>
         <v>6083</v>
       </c>
     </row>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -230,9 +230,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -515,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,38 +591,38 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>70</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>$A$1*1.1</f>
         <v>86.9</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f>C3*D3</f>
         <v>6083</v>
       </c>
-      <c r="F3" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="F3" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="6">
         <v>44805</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="6">
-        <v>10</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I3" s="5">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5">
         <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <f>E3+J3</f>
         <v>6083</v>
       </c>
@@ -630,42 +632,42 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>86.9</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>6039.55</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f>H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>6039.55</v>
       </c>
@@ -675,42 +677,42 @@
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" si="1"/>
         <v>5996.1</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f t="shared" ref="J5:J38" si="9">H5*I5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <f t="shared" si="3"/>
         <v>5996.1</v>
       </c>
@@ -720,42 +722,42 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
         <v>5952.6500000000005</v>
       </c>
-      <c r="F6" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="7"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="I6" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <f t="shared" si="3"/>
         <v>5952.6500000000005</v>
       </c>
@@ -765,42 +767,42 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
         <v>5909.2000000000007</v>
       </c>
-      <c r="F7" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="7"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <f t="shared" si="3"/>
         <v>5909.2000000000007</v>
       </c>
@@ -810,42 +812,42 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="1"/>
         <v>5865.75</v>
       </c>
-      <c r="F8" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" si="7"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="I8" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <f>E8+J8</f>
         <v>5865.75</v>
       </c>
@@ -855,42 +857,42 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
         <v>5822.3</v>
       </c>
-      <c r="F9" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" si="7"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <f t="shared" si="3"/>
         <v>5822.3</v>
       </c>
@@ -900,42 +902,42 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
         <v>5778.85</v>
       </c>
-      <c r="F10" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="6">
         <f>G9+1</f>
         <v>44812</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="I10" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <f t="shared" si="3"/>
         <v>5778.85</v>
       </c>
@@ -945,42 +947,42 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="1"/>
         <v>5735.4000000000005</v>
       </c>
-      <c r="F11" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="F11" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="I11" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <f t="shared" si="3"/>
         <v>5735.4000000000005</v>
       </c>
@@ -990,42 +992,42 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" si="1"/>
         <v>5691.9500000000007</v>
       </c>
-      <c r="F12" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="6">
         <f t="shared" si="7"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="I12" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="5">
         <f t="shared" si="3"/>
         <v>5701.9500000000007</v>
       </c>
@@ -1035,42 +1037,42 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
         <v>5648.5</v>
       </c>
-      <c r="F13" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="6">
         <f t="shared" si="7"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="I13" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="5">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <f t="shared" si="3"/>
         <v>5668.5</v>
       </c>
@@ -1080,42 +1082,42 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>5605.05</v>
       </c>
-      <c r="F14" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="6">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="I14" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <f t="shared" si="3"/>
         <v>5635.05</v>
       </c>
@@ -1125,42 +1127,42 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>5561.6</v>
       </c>
-      <c r="F15" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="6">
         <f t="shared" si="7"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="I15" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="5">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <f t="shared" si="3"/>
         <v>5601.6</v>
       </c>
@@ -1170,42 +1172,42 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>5518.1500000000005</v>
       </c>
-      <c r="F16" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="F16" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="6">
         <f t="shared" si="7"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="I16" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="5">
         <f>H16*I16</f>
         <v>50</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <f t="shared" si="3"/>
         <v>5568.1500000000005</v>
       </c>
@@ -1215,42 +1217,42 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
         <v>5474.7000000000007</v>
       </c>
-      <c r="F17" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="6">
         <f t="shared" si="7"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="I17" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="5">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <f t="shared" si="3"/>
         <v>5534.7000000000007</v>
       </c>
@@ -1260,42 +1262,42 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E18" s="5">
         <f t="shared" si="1"/>
         <v>5431.25</v>
       </c>
-      <c r="F18" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="6">
         <f t="shared" si="7"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <f>I17</f>
         <v>10</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <f t="shared" si="3"/>
         <v>5501.25</v>
       </c>
@@ -1305,42 +1307,42 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E19" s="5">
         <f t="shared" si="1"/>
         <v>5387.8</v>
       </c>
-      <c r="F19" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="F19" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" si="7"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="I19" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="5">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <f t="shared" si="3"/>
         <v>5467.8</v>
       </c>
@@ -1350,42 +1352,42 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="1"/>
         <v>5344.35</v>
       </c>
-      <c r="F20" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="F20" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="6">
         <f t="shared" si="7"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="I20" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="5">
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <f t="shared" si="3"/>
         <v>5434.35</v>
       </c>
@@ -1395,42 +1397,42 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E21" s="5">
         <f t="shared" si="1"/>
         <v>5300.9000000000005</v>
       </c>
-      <c r="F21" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="F21" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="6">
         <f t="shared" si="7"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="6">
+      <c r="H21" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="5">
         <f>I20</f>
         <v>10</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <f t="shared" si="3"/>
         <v>5400.9000000000005</v>
       </c>
@@ -1440,42 +1442,42 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E22" s="5">
         <f t="shared" si="1"/>
         <v>5257.4500000000007</v>
       </c>
-      <c r="F22" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="F22" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="6">
         <f t="shared" si="7"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="I22" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="5">
         <f t="shared" si="9"/>
         <v>110</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <f t="shared" si="3"/>
         <v>5367.4500000000007</v>
       </c>
@@ -1485,42 +1487,42 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E23" s="5">
         <f t="shared" si="1"/>
         <v>5214</v>
       </c>
-      <c r="F23" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="F23" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="6">
         <f t="shared" si="7"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="6">
+      <c r="I23" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="5">
         <f t="shared" si="9"/>
         <v>120</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <f t="shared" si="3"/>
         <v>5334</v>
       </c>
@@ -1530,42 +1532,42 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E24" s="5">
         <f t="shared" si="1"/>
         <v>5170.55</v>
       </c>
-      <c r="F24" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="F24" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="6">
         <f t="shared" si="7"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="6">
+      <c r="I24" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="9"/>
         <v>130</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <f t="shared" si="3"/>
         <v>5300.55</v>
       </c>
@@ -1575,42 +1577,42 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="1"/>
         <v>5127.1000000000004</v>
       </c>
-      <c r="F25" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="F25" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="6">
         <f t="shared" si="7"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="I25" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="5">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <f t="shared" si="3"/>
         <v>5267.1</v>
       </c>
@@ -1620,42 +1622,42 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E26" s="5">
         <f t="shared" si="1"/>
         <v>5083.6500000000005</v>
       </c>
-      <c r="F26" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="F26" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="6">
         <f t="shared" si="7"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="6">
+      <c r="I26" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="5">
         <f>H26*I26</f>
         <v>150</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <f t="shared" si="3"/>
         <v>5233.6500000000005</v>
       </c>
@@ -1665,42 +1667,42 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E27" s="5">
         <f t="shared" si="1"/>
         <v>5040.2000000000007</v>
       </c>
-      <c r="F27" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="F27" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="6">
         <f t="shared" si="7"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="6">
+      <c r="I27" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="5">
         <f t="shared" si="9"/>
         <v>160</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <f t="shared" si="3"/>
         <v>5200.2000000000007</v>
       </c>
@@ -1710,42 +1712,42 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" si="1"/>
         <v>4996.75</v>
       </c>
-      <c r="F28" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="F28" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="6">
         <f t="shared" si="7"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="6">
+      <c r="I28" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="5">
         <f t="shared" si="9"/>
         <v>170</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <f t="shared" si="3"/>
         <v>5166.75</v>
       </c>
@@ -1755,42 +1757,42 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E29" s="5">
         <f t="shared" si="1"/>
         <v>4953.3</v>
       </c>
-      <c r="F29" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="7">
+      <c r="F29" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="6">
         <f t="shared" si="7"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="6">
+      <c r="I29" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="5">
         <f t="shared" si="9"/>
         <v>180</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <f t="shared" si="3"/>
         <v>5133.3</v>
       </c>
@@ -1800,42 +1802,42 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E30" s="5">
         <f t="shared" si="1"/>
         <v>4909.8500000000004</v>
       </c>
-      <c r="F30" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="F30" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="6">
         <f t="shared" si="7"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="6">
+      <c r="I30" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="5">
         <f t="shared" si="9"/>
         <v>190</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <f t="shared" si="3"/>
         <v>5099.8500000000004</v>
       </c>
@@ -1845,42 +1847,42 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E31" s="5">
         <f t="shared" si="1"/>
         <v>4866.4000000000005</v>
       </c>
-      <c r="F31" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="F31" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="6">
         <f t="shared" si="7"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="6">
+      <c r="I31" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="5">
         <f t="shared" si="9"/>
         <v>200</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <f t="shared" si="3"/>
         <v>5066.4000000000005</v>
       </c>
@@ -1890,42 +1892,42 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E32" s="5">
         <f t="shared" si="1"/>
         <v>4822.9500000000007</v>
       </c>
-      <c r="F32" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="7">
+      <c r="F32" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="6">
         <f t="shared" si="7"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="6">
+      <c r="I32" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="5">
         <f t="shared" si="9"/>
         <v>210</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <f t="shared" si="3"/>
         <v>5032.9500000000007</v>
       </c>
@@ -1935,42 +1937,42 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E33" s="5">
         <f t="shared" si="1"/>
         <v>4779.5</v>
       </c>
-      <c r="F33" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="F33" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="6">
         <f t="shared" si="7"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="6">
+      <c r="I33" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="5">
         <f t="shared" si="9"/>
         <v>220</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <f t="shared" si="3"/>
         <v>4999.5</v>
       </c>
@@ -1980,42 +1982,42 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="6">
-        <f t="shared" si="0"/>
-        <v>86.9</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>86.9</v>
+      </c>
+      <c r="E34" s="5">
         <f t="shared" si="1"/>
         <v>4736.05</v>
       </c>
-      <c r="F34" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="F34" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="6">
         <f t="shared" si="7"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="6">
+      <c r="I34" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="5">
         <f t="shared" si="9"/>
         <v>230</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <f t="shared" si="3"/>
         <v>4966.05</v>
       </c>
@@ -2025,42 +2027,42 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <f>($A$1*1.1)/2</f>
         <v>43.45</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <f>C35*D35</f>
         <v>2346.3000000000002</v>
       </c>
-      <c r="F35" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="F35" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="6">
         <f t="shared" si="7"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="6">
+      <c r="I35" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="5">
         <f t="shared" si="9"/>
         <v>240</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <f t="shared" si="3"/>
         <v>2586.3000000000002</v>
       </c>
@@ -2070,42 +2072,42 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <f t="shared" ref="D36:D38" si="10">($A$1*1.1)/2</f>
         <v>43.45</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <f t="shared" si="1"/>
         <v>2324.5750000000003</v>
       </c>
-      <c r="F36" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="F36" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="6">
         <f t="shared" si="7"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="6">
+      <c r="I36" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="5">
         <f t="shared" si="9"/>
         <v>250</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <f t="shared" si="3"/>
         <v>2574.5750000000003</v>
       </c>
@@ -2115,42 +2117,42 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <f t="shared" si="10"/>
         <v>43.45</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <f t="shared" si="1"/>
         <v>2302.8500000000004</v>
       </c>
-      <c r="F37" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="7">
+      <c r="F37" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="6">
         <f t="shared" si="7"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="6">
+      <c r="I37" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="5">
         <f t="shared" si="9"/>
         <v>260</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <f t="shared" si="3"/>
         <v>2562.8500000000004</v>
       </c>
@@ -2160,42 +2162,42 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <f t="shared" si="10"/>
         <v>43.45</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <f t="shared" si="1"/>
         <v>2281.125</v>
       </c>
-      <c r="F38" s="7">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="7">
+      <c r="F38" s="6">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="6">
         <f t="shared" si="7"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="6">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="6">
+      <c r="I38" s="5">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="5">
         <f t="shared" si="9"/>
         <v>270</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <f t="shared" si="3"/>
         <v>2551.125</v>
       </c>
@@ -2209,7 +2211,7 @@
       <c r="B40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="7">
         <f>TRUNC(SUM(K3:K38))</f>
         <v>186139</v>
       </c>
@@ -2218,8 +2220,8 @@
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="1">
-        <f>SUM(C3:C38)/COUNT(C3:C38)</f>
+      <c r="C41" s="2">
+        <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
@@ -2227,8 +2229,8 @@
       <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="1">
-        <f>MAXA(H:H)</f>
+      <c r="C42" s="2">
+        <f>MAX(H:H)</f>
         <v>27</v>
       </c>
     </row>
@@ -2236,8 +2238,8 @@
       <c r="B43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="1">
-        <f>MAXA(K:K)</f>
+      <c r="C43" s="2">
+        <f>MAX(K:K)</f>
         <v>6083</v>
       </c>
     </row>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2212,7 +2212,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="7">
-        <f>TRUNC(SUM(K3:K38))</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>186139</v>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="2">
-        <f>MAX(H:H)</f>
+        <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="2">
-        <f>MAX(K:K)</f>
+        <f>MAX(K3:K38)</f>
         <v>6083</v>
       </c>
     </row>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -238,12 +238,18 @@
   <si>
     <t>=</t>
   </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +305,19 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <color rgb="FF282C34"/>
+      <charset val="204"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -334,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="bottom"/>
@@ -379,6 +398,13 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" horizontal="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="O37" activeCellId="0" sqref="O37"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="N37" activeCellId="0" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -715,663 +741,676 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14">
+      <c r="A1" s="18">
         <v>79</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" ht="15">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" ht="15">
-      <c r="A3" s="14">
+    <row r="3">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="11">
         <v>70</v>
       </c>
-      <c r="D3" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D3" s="11">
+        <f>$A$1*1.1</f>
         <v>86.9</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <f>C3*D3</f>
         <v>6083</v>
       </c>
-      <c r="F3" s="16">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="16">
+      <c r="F3" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="12">
         <v>44805</v>
       </c>
-      <c r="H3" s="14">
-        <f>IF(F3&gt;=G3, 0, G3-F3)</f>
+      <c r="H3" s="11">
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="17">
-        <v>10</v>
-      </c>
-      <c r="J3" s="14">
+      <c r="I3" s="11">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11">
         <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="11">
         <f>E3+J3</f>
         <v>6083</v>
       </c>
     </row>
-    <row r="4" ht="15">
-      <c r="A4" s="14">
+    <row r="4">
+      <c r="A4" s="9">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D4" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <f>C4*D4</f>
         <v>6039.55</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="12">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="12">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="14">
-        <f>IF(F4&gt;=G4, 0, G4-F4)</f>
+      <c r="H4" s="11">
+        <f>IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="11">
         <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="11">
         <f>H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="11">
         <f>E4+J4</f>
         <v>6039.55</v>
       </c>
     </row>
-    <row r="5" ht="15">
-      <c r="A5" s="14">
+    <row r="5">
+      <c r="A5" s="9">
         <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <f>C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D5" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <f>C5*D5</f>
         <v>5996.1</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <f>F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="12">
+        <f>G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="14">
-        <f>IF(F5&gt;=G5, 0, G5-F5)</f>
+      <c r="H5" s="11">
+        <f>IF(G5&gt;F5,G5-F5,0)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="11">
         <f>I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="11">
         <f>H5*I5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="11">
         <f>E5+J5</f>
         <v>5996.1</v>
       </c>
     </row>
-    <row r="6" ht="15">
-      <c r="A6" s="14">
+    <row r="6">
+      <c r="A6" s="9">
         <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <f>C5-0.5</f>
         <v>68.5</v>
       </c>
-      <c r="D6" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D6" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <f>C6*D6</f>
         <v>5952.650000000001</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <f>F5</f>
         <v>44813</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="12">
+        <f>G5+1</f>
         <v>44808</v>
       </c>
-      <c r="H6" s="14">
-        <f>IF(F6&gt;=G6, 0, G6-F6)</f>
+      <c r="H6" s="11">
+        <f>IF(G6&gt;F6,G6-F6,0)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="11">
         <f>I5</f>
         <v>10</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="11">
         <f>H6*I6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="11">
         <f>E6+J6</f>
         <v>5952.650000000001</v>
       </c>
     </row>
-    <row r="7" ht="15">
-      <c r="A7" s="14">
+    <row r="7">
+      <c r="A7" s="9">
         <f>A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <f>C6-0.5</f>
         <v>68</v>
       </c>
-      <c r="D7" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D7" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <f>C7*D7</f>
         <v>5909.200000000001</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <f>F6</f>
         <v>44813</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="12">
+        <f>G6+1</f>
         <v>44809</v>
       </c>
-      <c r="H7" s="14">
-        <f>IF(F7&gt;=G7, 0, G7-F7)</f>
+      <c r="H7" s="11">
+        <f>IF(G7&gt;F7,G7-F7,0)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="11">
         <f>I6</f>
         <v>10</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="11">
         <f>H7*I7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="11">
         <f>E7+J7</f>
         <v>5909.200000000001</v>
       </c>
     </row>
-    <row r="8" ht="15">
-      <c r="A8" s="14">
+    <row r="8">
+      <c r="A8" s="9">
         <f>A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <f>C7-0.5</f>
         <v>67.5</v>
       </c>
-      <c r="D8" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D8" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <f>C8*D8</f>
         <v>5865.75</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <f>F7</f>
         <v>44813</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="12">
+        <f>G7+1</f>
         <v>44810</v>
       </c>
-      <c r="H8" s="14">
-        <f>IF(F8&gt;=G8, 0, G8-F8)</f>
+      <c r="H8" s="11">
+        <f>IF(G8&gt;F8,G8-F8,0)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="11">
         <f>I7</f>
         <v>10</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="11">
         <f>H8*I8</f>
         <v>0</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="11">
         <f>E8+J8</f>
         <v>5865.75</v>
       </c>
     </row>
-    <row r="9" ht="15">
-      <c r="A9" s="14">
+    <row r="9">
+      <c r="A9" s="9">
         <f>A8+1</f>
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <f>C8-0.5</f>
         <v>67</v>
       </c>
-      <c r="D9" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D9" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <f>C9*D9</f>
         <v>5822.3</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="12">
         <f>F8</f>
         <v>44813</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="12">
+        <f>G8+1</f>
         <v>44811</v>
       </c>
-      <c r="H9" s="14">
-        <f>IF(F9&gt;=G9, 0, G9-F9)</f>
+      <c r="H9" s="11">
+        <f>IF(G9&gt;F9,G9-F9,0)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="11">
         <f>I8</f>
         <v>10</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="11">
         <f>H9*I9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <f>E9+J9</f>
         <v>5822.3</v>
       </c>
     </row>
-    <row r="10" ht="15">
-      <c r="A10" s="14">
+    <row r="10">
+      <c r="A10" s="9">
         <f>A9+1</f>
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="B10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11">
         <f>C9-0.5</f>
         <v>66.5</v>
       </c>
-      <c r="D10" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D10" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <f>C10*D10</f>
         <v>5778.85</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="12">
         <f>F9</f>
         <v>44813</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="12">
+        <f>G9+1</f>
         <v>44812</v>
       </c>
-      <c r="H10" s="14">
-        <f>IF(F10&gt;=G10, 0, G10-F10)</f>
+      <c r="H10" s="11">
+        <f>IF(G10&gt;F10,G10-F10,0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="11">
         <f>I9</f>
         <v>10</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="11">
         <f>H10*I10</f>
         <v>0</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="11">
         <f>E10+J10</f>
         <v>5778.85</v>
       </c>
     </row>
-    <row r="11" ht="15">
-      <c r="A11" s="14">
+    <row r="11">
+      <c r="A11" s="9">
         <f>A10+1</f>
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11">
         <f>C10-0.5</f>
         <v>66</v>
       </c>
-      <c r="D11" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D11" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <f>C11*D11</f>
         <v>5735.400000000001</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="12">
         <f>F10</f>
         <v>44813</v>
       </c>
-      <c r="G11" s="16">
-        <v>44813</v>
-      </c>
-      <c r="H11" s="14">
-        <f>IF(F11&gt;=G11, 0, G11-F11)</f>
+      <c r="G11" s="12">
+        <f>G10+1</f>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="11">
+        <f>IF(G11&gt;F11,G11-F11,0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="11">
         <f>I10</f>
         <v>10</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="11">
         <f>H11*I11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="11">
         <f>E11+J11</f>
         <v>5735.400000000001</v>
       </c>
     </row>
-    <row r="12" ht="15">
-      <c r="A12" s="14">
+    <row r="12">
+      <c r="A12" s="9">
         <f>A11+1</f>
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <f>C11-0.5</f>
         <v>65.5</v>
       </c>
-      <c r="D12" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D12" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <f>C12*D12</f>
         <v>5691.950000000001</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="12">
         <f>F11</f>
         <v>44813</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="12">
+        <f>G11+1</f>
         <v>44814</v>
       </c>
-      <c r="H12" s="14">
-        <f>IF(F12&gt;=G12, 0, G12-F12)</f>
+      <c r="H12" s="11">
+        <f>IF(G12&gt;F12,G12-F12,0)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="11">
         <f>I11</f>
         <v>10</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="11">
         <f>H12*I12</f>
         <v>10</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="11">
         <f>E12+J12</f>
         <v>5701.950000000001</v>
       </c>
     </row>
-    <row r="13" ht="15">
-      <c r="A13" s="14">
+    <row r="13">
+      <c r="A13" s="9">
         <f>A12+1</f>
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="11">
         <f>C12-0.5</f>
         <v>65</v>
       </c>
-      <c r="D13" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D13" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="11">
         <f>C13*D13</f>
         <v>5648.5</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="12">
         <f>F12</f>
         <v>44813</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="12">
+        <f>G12+1</f>
         <v>44815</v>
       </c>
-      <c r="H13" s="14">
-        <f>IF(F13&gt;=G13, 0, G13-F13)</f>
+      <c r="H13" s="11">
+        <f>IF(G13&gt;F13,G13-F13,0)</f>
         <v>2</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="11">
         <f>I12</f>
         <v>10</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="11">
         <f>H13*I13</f>
         <v>20</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="11">
         <f>E13+J13</f>
         <v>5668.5</v>
       </c>
     </row>
-    <row r="14" ht="15">
-      <c r="A14" s="14">
+    <row r="14">
+      <c r="A14" s="9">
         <f>A13+1</f>
         <v>12</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="11">
         <f>C13-0.5</f>
         <v>64.5</v>
       </c>
-      <c r="D14" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D14" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="11">
         <f>C14*D14</f>
         <v>5605.05</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="12">
         <f>F13</f>
         <v>44813</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="12">
+        <f>G13+1</f>
         <v>44816</v>
       </c>
-      <c r="H14" s="14">
-        <f>IF(F14&gt;=G14, 0, G14-F14)</f>
+      <c r="H14" s="11">
+        <f>IF(G14&gt;F14,G14-F14,0)</f>
         <v>3</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="11">
         <f>I13</f>
         <v>10</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="11">
         <f>H14*I14</f>
         <v>30</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="11">
         <f>E14+J14</f>
         <v>5635.05</v>
       </c>
     </row>
-    <row r="15" ht="15">
-      <c r="A15" s="14">
+    <row r="15">
+      <c r="A15" s="9">
         <f>A14+1</f>
         <v>13</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="11">
         <f>C14-0.5</f>
         <v>64</v>
       </c>
-      <c r="D15" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D15" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <f>C15*D15</f>
         <v>5561.6</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <f>F14</f>
         <v>44813</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="12">
+        <f>G14+1</f>
         <v>44817</v>
       </c>
-      <c r="H15" s="14">
-        <f>IF(F15&gt;=G15, 0, G15-F15)</f>
+      <c r="H15" s="11">
+        <f>IF(G15&gt;F15,G15-F15,0)</f>
         <v>4</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="11">
         <f>I14</f>
         <v>10</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="11">
         <f>H15*I15</f>
         <v>40</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="11">
         <f>E15+J15</f>
         <v>5601.6</v>
       </c>
     </row>
-    <row r="16" ht="15">
-      <c r="A16" s="14">
+    <row r="16">
+      <c r="A16" s="9">
         <f>A15+1</f>
         <v>14</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <f>C15-0.5</f>
         <v>63.5</v>
       </c>
-      <c r="D16" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D16" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="11">
         <f>C16*D16</f>
         <v>5518.150000000001</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="12">
         <f>F15</f>
         <v>44813</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="12">
+        <f>G15+1</f>
         <v>44818</v>
       </c>
-      <c r="H16" s="14">
-        <f>IF(F16&gt;=G16, 0, G16-F16)</f>
+      <c r="H16" s="11">
+        <f>IF(G16&gt;F16,G16-F16,0)</f>
         <v>5</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="11">
         <f>I15</f>
         <v>10</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="11">
         <f>H16*I16</f>
         <v>50</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="11">
         <f>E16+J16</f>
         <v>5568.150000000001</v>
       </c>
@@ -1383,46 +1422,47 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
     </row>
-    <row r="17" ht="15">
-      <c r="A17" s="14">
+    <row r="17">
+      <c r="A17" s="9">
         <f>A16+1</f>
         <v>15</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="11">
         <f>C16-0.5</f>
         <v>63</v>
       </c>
-      <c r="D17" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D17" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <f>C17*D17</f>
         <v>5474.700000000001</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="12">
         <f>F16</f>
         <v>44813</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="12">
+        <f>G16+1</f>
         <v>44819</v>
       </c>
-      <c r="H17" s="14">
-        <f>IF(F17&gt;=G17, 0, G17-F17)</f>
+      <c r="H17" s="11">
+        <f>IF(G17&gt;F17,G17-F17,0)</f>
         <v>6</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="11">
         <f>I16</f>
         <v>10</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="11">
         <f>H17*I17</f>
         <v>60</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="11">
         <f>E17+J17</f>
         <v>5534.700000000001</v>
       </c>
@@ -1434,46 +1474,47 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" ht="15">
-      <c r="A18" s="14">
+    <row r="18">
+      <c r="A18" s="9">
         <f>A17+1</f>
         <v>16</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="11">
         <f>C17-0.5</f>
         <v>62.5</v>
       </c>
-      <c r="D18" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D18" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="11">
         <f>C18*D18</f>
         <v>5431.25</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="12">
         <f>F17</f>
         <v>44813</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="12">
+        <f>G17+1</f>
         <v>44820</v>
       </c>
-      <c r="H18" s="14">
-        <f>IF(F18&gt;=G18, 0, G18-F18)</f>
+      <c r="H18" s="11">
+        <f>IF(G18&gt;F18,G18-F18,0)</f>
         <v>7</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="11">
         <f>I17</f>
         <v>10</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="11">
         <f>H18*I18</f>
         <v>70</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="11">
         <f>E18+J18</f>
         <v>5501.25</v>
       </c>
@@ -1485,46 +1526,47 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" ht="15">
-      <c r="A19" s="14">
+    <row r="19">
+      <c r="A19" s="9">
         <f>A18+1</f>
         <v>17</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="11">
         <f>C18-0.5</f>
         <v>62</v>
       </c>
-      <c r="D19" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D19" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="11">
         <f>C19*D19</f>
         <v>5387.8</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="12">
         <f>F18</f>
         <v>44813</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="12">
+        <f>G18+1</f>
         <v>44821</v>
       </c>
-      <c r="H19" s="14">
-        <f>IF(F19&gt;=G19, 0, G19-F19)</f>
+      <c r="H19" s="11">
+        <f>IF(G19&gt;F19,G19-F19,0)</f>
         <v>8</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="11">
         <f>I18</f>
         <v>10</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="11">
         <f>H19*I19</f>
         <v>80</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="11">
         <f>E19+J19</f>
         <v>5467.8</v>
       </c>
@@ -1536,46 +1578,47 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" ht="15">
-      <c r="A20" s="14">
+    <row r="20">
+      <c r="A20" s="9">
         <f>A19+1</f>
         <v>18</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="11">
         <f>C19-0.5</f>
         <v>61.5</v>
       </c>
-      <c r="D20" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D20" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="11">
         <f>C20*D20</f>
         <v>5344.35</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="12">
         <f>F19</f>
         <v>44813</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="12">
+        <f>G19+1</f>
         <v>44822</v>
       </c>
-      <c r="H20" s="14">
-        <f>IF(F20&gt;=G20, 0, G20-F20)</f>
+      <c r="H20" s="11">
+        <f>IF(G20&gt;F20,G20-F20,0)</f>
         <v>9</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="11">
         <f>I19</f>
         <v>10</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="11">
         <f>H20*I20</f>
         <v>90</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="11">
         <f>E20+J20</f>
         <v>5434.35</v>
       </c>
@@ -1587,46 +1630,47 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" ht="15">
-      <c r="A21" s="14">
+    <row r="21">
+      <c r="A21" s="9">
         <f>A20+1</f>
         <v>19</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11">
         <f>C20-0.5</f>
         <v>61</v>
       </c>
-      <c r="D21" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D21" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="11">
         <f>C21*D21</f>
         <v>5300.900000000001</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="12">
         <f>F20</f>
         <v>44813</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="12">
+        <f>G20+1</f>
         <v>44823</v>
       </c>
-      <c r="H21" s="14">
-        <f>IF(F21&gt;=G21, 0, G21-F21)</f>
-        <v>10</v>
-      </c>
-      <c r="I21" s="17">
+      <c r="H21" s="11">
+        <f>IF(G21&gt;F21,G21-F21,0)</f>
+        <v>10</v>
+      </c>
+      <c r="I21" s="11">
         <f>I20</f>
         <v>10</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="11">
         <f>H21*I21</f>
         <v>100</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="11">
         <f>E21+J21</f>
         <v>5400.900000000001</v>
       </c>
@@ -1638,46 +1682,47 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
     </row>
-    <row r="22" ht="15">
-      <c r="A22" s="14">
+    <row r="22">
+      <c r="A22" s="9">
         <f>A21+1</f>
         <v>20</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="11">
         <f>C21-0.5</f>
         <v>60.5</v>
       </c>
-      <c r="D22" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D22" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="11">
         <f>C22*D22</f>
         <v>5257.450000000001</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="12">
         <f>F21</f>
         <v>44813</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="12">
+        <f>G21+1</f>
         <v>44824</v>
       </c>
-      <c r="H22" s="14">
-        <f>IF(F22&gt;=G22, 0, G22-F22)</f>
+      <c r="H22" s="11">
+        <f>IF(G22&gt;F22,G22-F22,0)</f>
         <v>11</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="11">
         <f>I21</f>
         <v>10</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="11">
         <f>H22*I22</f>
         <v>110</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="11">
         <f>E22+J22</f>
         <v>5367.450000000001</v>
       </c>
@@ -1689,46 +1734,47 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" ht="15">
-      <c r="A23" s="14">
+    <row r="23">
+      <c r="A23" s="9">
         <f>A22+1</f>
         <v>21</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="11">
         <f>C22-0.5</f>
         <v>60</v>
       </c>
-      <c r="D23" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D23" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="11">
         <f>C23*D23</f>
         <v>5214</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="12">
         <f>F22</f>
         <v>44813</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="12">
+        <f>G22+1</f>
         <v>44825</v>
       </c>
-      <c r="H23" s="14">
-        <f>IF(F23&gt;=G23, 0, G23-F23)</f>
+      <c r="H23" s="11">
+        <f>IF(G23&gt;F23,G23-F23,0)</f>
         <v>12</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="11">
         <f>I22</f>
         <v>10</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="11">
         <f>H23*I23</f>
         <v>120</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="11">
         <f>E23+J23</f>
         <v>5334</v>
       </c>
@@ -1740,46 +1786,47 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
     </row>
-    <row r="24" ht="15">
-      <c r="A24" s="14">
+    <row r="24">
+      <c r="A24" s="9">
         <f>A23+1</f>
         <v>22</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="11">
         <f>C23-0.5</f>
         <v>59.5</v>
       </c>
-      <c r="D24" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D24" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="11">
         <f>C24*D24</f>
         <v>5170.55</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="12">
         <f>F23</f>
         <v>44813</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="12">
+        <f>G23+1</f>
         <v>44826</v>
       </c>
-      <c r="H24" s="14">
-        <f>IF(F24&gt;=G24, 0, G24-F24)</f>
+      <c r="H24" s="11">
+        <f>IF(G24&gt;F24,G24-F24,0)</f>
         <v>13</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="11">
         <f>I23</f>
         <v>10</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="11">
         <f>H24*I24</f>
         <v>130</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="11">
         <f>E24+J24</f>
         <v>5300.55</v>
       </c>
@@ -1791,46 +1838,47 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" ht="15">
-      <c r="A25" s="14">
+    <row r="25">
+      <c r="A25" s="9">
         <f>A24+1</f>
         <v>23</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="11">
         <f>C24-0.5</f>
         <v>59</v>
       </c>
-      <c r="D25" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D25" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="11">
         <f>C25*D25</f>
         <v>5127.1</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="12">
         <f>F24</f>
         <v>44813</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="12">
+        <f>G24+1</f>
         <v>44827</v>
       </c>
-      <c r="H25" s="14">
-        <f>IF(F25&gt;=G25, 0, G25-F25)</f>
+      <c r="H25" s="11">
+        <f>IF(G25&gt;F25,G25-F25,0)</f>
         <v>14</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="11">
         <f>I24</f>
         <v>10</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="11">
         <f>H25*I25</f>
         <v>140</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="11">
         <f>E25+J25</f>
         <v>5267.1</v>
       </c>
@@ -1842,46 +1890,47 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
     </row>
-    <row r="26" ht="15">
-      <c r="A26" s="14">
+    <row r="26">
+      <c r="A26" s="9">
         <f>A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="11">
         <f>C25-0.5</f>
         <v>58.5</v>
       </c>
-      <c r="D26" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D26" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="11">
         <f>C26*D26</f>
         <v>5083.650000000001</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="12">
         <f>F25</f>
         <v>44813</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="12">
+        <f>G25+1</f>
         <v>44828</v>
       </c>
-      <c r="H26" s="14">
-        <f>IF(F26&gt;=G26, 0, G26-F26)</f>
+      <c r="H26" s="11">
+        <f>IF(G26&gt;F26,G26-F26,0)</f>
         <v>15</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="11">
         <f>I25</f>
         <v>10</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="11">
         <f>H26*I26</f>
         <v>150</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="11">
         <f>E26+J26</f>
         <v>5233.650000000001</v>
       </c>
@@ -1893,46 +1942,47 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
     </row>
-    <row r="27" ht="15">
-      <c r="A27" s="14">
+    <row r="27">
+      <c r="A27" s="9">
         <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="11">
         <f>C26-0.5</f>
         <v>58</v>
       </c>
-      <c r="D27" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D27" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="11">
         <f>C27*D27</f>
         <v>5040.200000000001</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="12">
         <f>F26</f>
         <v>44813</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="12">
+        <f>G26+1</f>
         <v>44829</v>
       </c>
-      <c r="H27" s="14">
-        <f>IF(F27&gt;=G27, 0, G27-F27)</f>
+      <c r="H27" s="11">
+        <f>IF(G27&gt;F27,G27-F27,0)</f>
         <v>16</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="11">
         <f>I26</f>
         <v>10</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="11">
         <f>H27*I27</f>
         <v>160</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="11">
         <f>E27+J27</f>
         <v>5200.200000000001</v>
       </c>
@@ -1944,46 +1994,47 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
     </row>
-    <row r="28" ht="15">
-      <c r="A28" s="14">
+    <row r="28">
+      <c r="A28" s="9">
         <f>A27+1</f>
         <v>26</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="11">
         <f>C27-0.5</f>
         <v>57.5</v>
       </c>
-      <c r="D28" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D28" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="11">
         <f>C28*D28</f>
         <v>4996.75</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="12">
         <f>F27</f>
         <v>44813</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="12">
+        <f>G27+1</f>
         <v>44830</v>
       </c>
-      <c r="H28" s="14">
-        <f>IF(F28&gt;=G28, 0, G28-F28)</f>
+      <c r="H28" s="11">
+        <f>IF(G28&gt;F28,G28-F28,0)</f>
         <v>17</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="11">
         <f>I27</f>
         <v>10</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="11">
         <f>H28*I28</f>
         <v>170</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="11">
         <f>E28+J28</f>
         <v>5166.75</v>
       </c>
@@ -1995,46 +2046,47 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
     </row>
-    <row r="29" ht="15">
-      <c r="A29" s="14">
+    <row r="29">
+      <c r="A29" s="9">
         <f>A28+1</f>
         <v>27</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="11">
         <f>C28-0.5</f>
         <v>57</v>
       </c>
-      <c r="D29" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D29" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="11">
         <f>C29*D29</f>
         <v>4953.3</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="12">
         <f>F28</f>
         <v>44813</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="12">
+        <f>G28+1</f>
         <v>44831</v>
       </c>
-      <c r="H29" s="14">
-        <f>IF(F29&gt;=G29, 0, G29-F29)</f>
+      <c r="H29" s="11">
+        <f>IF(G29&gt;F29,G29-F29,0)</f>
         <v>18</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="11">
         <f>I28</f>
         <v>10</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="11">
         <f>H29*I29</f>
         <v>180</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="11">
         <f>E29+J29</f>
         <v>5133.3</v>
       </c>
@@ -2046,46 +2098,47 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
     </row>
-    <row r="30" ht="15">
-      <c r="A30" s="14">
+    <row r="30">
+      <c r="A30" s="9">
         <f>A29+1</f>
         <v>28</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="11">
         <f>C29-0.5</f>
         <v>56.5</v>
       </c>
-      <c r="D30" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D30" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="11">
         <f>C30*D30</f>
         <v>4909.85</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="12">
         <f>F29</f>
         <v>44813</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="12">
+        <f>G29+1</f>
         <v>44832</v>
       </c>
-      <c r="H30" s="14">
-        <f>IF(F30&gt;=G30, 0, G30-F30)</f>
+      <c r="H30" s="11">
+        <f>IF(G30&gt;F30,G30-F30,0)</f>
         <v>19</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="11">
         <f>I29</f>
         <v>10</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="11">
         <f>H30*I30</f>
         <v>190</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="11">
         <f>E30+J30</f>
         <v>5099.85</v>
       </c>
@@ -2097,46 +2150,47 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
     </row>
-    <row r="31" ht="15">
-      <c r="A31" s="14">
+    <row r="31">
+      <c r="A31" s="9">
         <f>A30+1</f>
         <v>29</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="11">
         <f>C30-0.5</f>
         <v>56</v>
       </c>
-      <c r="D31" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D31" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="11">
         <f>C31*D31</f>
         <v>4866.400000000001</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="12">
         <f>F30</f>
         <v>44813</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="12">
+        <f>G30+1</f>
         <v>44833</v>
       </c>
-      <c r="H31" s="14">
-        <f>IF(F31&gt;=G31, 0, G31-F31)</f>
+      <c r="H31" s="11">
+        <f>IF(G31&gt;F31,G31-F31,0)</f>
         <v>20</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="11">
         <f>I30</f>
         <v>10</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="11">
         <f>H31*I31</f>
         <v>200</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="11">
         <f>E31+J31</f>
         <v>5066.400000000001</v>
       </c>
@@ -2148,46 +2202,47 @@
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
     </row>
-    <row r="32" ht="15">
-      <c r="A32" s="14">
+    <row r="32">
+      <c r="A32" s="9">
         <f>A31+1</f>
         <v>30</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="11">
         <f>C31-0.5</f>
         <v>55.5</v>
       </c>
-      <c r="D32" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D32" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="11">
         <f>C32*D32</f>
         <v>4822.950000000001</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="12">
         <f>F31</f>
         <v>44813</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="12">
+        <f>G31+1</f>
         <v>44834</v>
       </c>
-      <c r="H32" s="14">
-        <f>IF(F32&gt;=G32, 0, G32-F32)</f>
+      <c r="H32" s="11">
+        <f>IF(G32&gt;F32,G32-F32,0)</f>
         <v>21</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="11">
         <f>I31</f>
         <v>10</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="11">
         <f>H32*I32</f>
         <v>210</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="11">
         <f>E32+J32</f>
         <v>5032.950000000001</v>
       </c>
@@ -2199,46 +2254,47 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
     </row>
-    <row r="33" ht="15">
-      <c r="A33" s="14">
+    <row r="33">
+      <c r="A33" s="9">
         <f>A32+1</f>
         <v>31</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="11">
         <f>C32-0.5</f>
         <v>55</v>
       </c>
-      <c r="D33" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D33" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="11">
         <f>C33*D33</f>
         <v>4779.5</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="12">
         <f>F32</f>
         <v>44813</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="12">
+        <f>G32+1</f>
         <v>44835</v>
       </c>
-      <c r="H33" s="14">
-        <f>IF(F33&gt;=G33, 0, G33-F33)</f>
+      <c r="H33" s="11">
+        <f>IF(G33&gt;F33,G33-F33,0)</f>
         <v>22</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="11">
         <f>I32</f>
         <v>10</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="11">
         <f>H33*I33</f>
         <v>220</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="11">
         <f>E33+J33</f>
         <v>4999.5</v>
       </c>
@@ -2250,46 +2306,47 @@
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
     </row>
-    <row r="34" ht="15">
-      <c r="A34" s="14">
+    <row r="34">
+      <c r="A34" s="9">
         <f>A33+1</f>
         <v>32</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="11">
         <f>C33-0.5</f>
         <v>54.5</v>
       </c>
-      <c r="D34" s="14">
-        <f>1.1*$A$1</f>
+      <c r="D34" s="11">
+        <f>$D$3</f>
         <v>86.9</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="11">
         <f>C34*D34</f>
         <v>4736.05</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="12">
         <f>F33</f>
         <v>44813</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="12">
+        <f>G33+1</f>
         <v>44836</v>
       </c>
-      <c r="H34" s="14">
-        <f>IF(F34&gt;=G34, 0, G34-F34)</f>
+      <c r="H34" s="11">
+        <f>IF(G34&gt;F34,G34-F34,0)</f>
         <v>23</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="11">
         <f>I33</f>
         <v>10</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="11">
         <f>H34*I34</f>
         <v>230</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="11">
         <f>E34+J34</f>
         <v>4966.05</v>
       </c>
@@ -2301,46 +2358,47 @@
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
     </row>
-    <row r="35" ht="15">
-      <c r="A35" s="14">
+    <row r="35">
+      <c r="A35" s="9">
         <f>A34+1</f>
         <v>33</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="11">
         <f>C34-0.5</f>
         <v>54</v>
       </c>
-      <c r="D35" s="14">
-        <f>$A$1*0.55</f>
+      <c r="D35" s="11">
+        <f>$D$3/2</f>
         <v>43.45</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="11">
         <f>C35*D35</f>
         <v>2346.3</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="12">
         <f>F34</f>
         <v>44813</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="12">
+        <f>G34+1</f>
         <v>44837</v>
       </c>
-      <c r="H35" s="14">
-        <f>IF(F35&gt;=G35, 0, G35-F35)</f>
+      <c r="H35" s="11">
+        <f>IF(G35&gt;F35,G35-F35,0)</f>
         <v>24</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="11">
         <f>I34</f>
         <v>10</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="11">
         <f>H35*I35</f>
         <v>240</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="11">
         <f>E35+J35</f>
         <v>2586.3</v>
       </c>
@@ -2352,46 +2410,47 @@
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
     </row>
-    <row r="36" ht="15">
-      <c r="A36" s="14">
+    <row r="36">
+      <c r="A36" s="9">
         <f>A35+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="11">
         <f>C35-0.5</f>
         <v>53.5</v>
       </c>
-      <c r="D36" s="14">
-        <f>$A$1*0.55</f>
+      <c r="D36" s="11">
+        <f>$D$3/2</f>
         <v>43.45</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="11">
         <f>C36*D36</f>
         <v>2324.5750000000003</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="12">
         <f>F35</f>
         <v>44813</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="12">
+        <f>G35+1</f>
         <v>44838</v>
       </c>
-      <c r="H36" s="14">
-        <f>IF(F36&gt;=G36, 0, G36-F36)</f>
+      <c r="H36" s="11">
+        <f>IF(G36&gt;F36,G36-F36,0)</f>
         <v>25</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="11">
         <f>I35</f>
         <v>10</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="11">
         <f>H36*I36</f>
         <v>250</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="11">
         <f>E36+J36</f>
         <v>2574.5750000000003</v>
       </c>
@@ -2403,46 +2462,47 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
     </row>
-    <row r="37" ht="15">
-      <c r="A37" s="14">
+    <row r="37">
+      <c r="A37" s="9">
         <f>A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="11">
         <f>C36-0.5</f>
         <v>53</v>
       </c>
-      <c r="D37" s="14">
-        <f>$A$1*0.55</f>
+      <c r="D37" s="11">
+        <f>$D$3/2</f>
         <v>43.45</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="11">
         <f>C37*D37</f>
         <v>2302.8500000000004</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="12">
         <f>F36</f>
         <v>44813</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="12">
+        <f>G36+1</f>
         <v>44839</v>
       </c>
-      <c r="H37" s="14">
-        <f>IF(F37&gt;=G37, 0, G37-F37)</f>
+      <c r="H37" s="11">
+        <f>IF(G37&gt;F37,G37-F37,0)</f>
         <v>26</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="11">
         <f>I36</f>
         <v>10</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="11">
         <f>H37*I37</f>
         <v>260</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="11">
         <f>E37+J37</f>
         <v>2562.8500000000004</v>
       </c>
@@ -2454,46 +2514,47 @@
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
     </row>
-    <row r="38" ht="15">
-      <c r="A38" s="14">
+    <row r="38">
+      <c r="A38" s="9">
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="11">
         <f>C37-0.5</f>
         <v>52.5</v>
       </c>
-      <c r="D38" s="14">
-        <f>$A$1*0.55</f>
+      <c r="D38" s="11">
+        <f>$D$3/2</f>
         <v>43.45</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="11">
         <f>C38*D38</f>
         <v>2281.125</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="12">
         <f>F37</f>
         <v>44813</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="12">
+        <f>G37+1</f>
         <v>44840</v>
       </c>
-      <c r="H38" s="14">
-        <f>IF(F38&gt;=G38, 0, G38-F38)</f>
+      <c r="H38" s="11">
+        <f>IF(G38&gt;F38,G38-F38,0)</f>
         <v>27</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="11">
         <f>I37</f>
         <v>10</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="11">
         <f>H38*I38</f>
         <v>270</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="11">
         <f>E38+J38</f>
         <v>2551.125</v>
       </c>
@@ -2506,17 +2567,17 @@
       <c r="R38" s="11"/>
     </row>
     <row r="39">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
@@ -2526,22 +2587,22 @@
       <c r="R39" s="11"/>
     </row>
     <row r="40">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="14">
-        <f>INT(SUM(K3:K38))</f>
+      <c r="C40" s="11">
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>186139</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
@@ -2551,22 +2612,22 @@
       <c r="R40" s="11"/>
     </row>
     <row r="41">
-      <c r="A41" s="15"/>
-      <c r="B41" s="14" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="11">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
@@ -2576,22 +2637,22 @@
       <c r="R41" s="11"/>
     </row>
     <row r="42">
-      <c r="A42" s="15"/>
-      <c r="B42" s="14" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="11">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
@@ -2601,22 +2662,22 @@
       <c r="R42" s="11"/>
     </row>
     <row r="43">
-      <c r="A43" s="15"/>
-      <c r="B43" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="17">
-        <f>MAX(J3, J38)</f>
-        <v>270</v>
-      </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="11">
+        <f>MAX(K3:K38)</f>
+        <v>6083</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>

--- a/LR3/table_1_79.xlsx
+++ b/LR3/table_1_79.xlsx
@@ -722,7 +722,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="N37" activeCellId="0" sqref="N37"/>
+      <selection activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -843,7 +843,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="11">
-        <f>$D$3</f>
+        <f>D3</f>
         <v>86.9</v>
       </c>
       <c r="E4" s="11">
@@ -888,7 +888,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="11">
-        <f>$D$3</f>
+        <f>D4</f>
         <v>86.9</v>
       </c>
       <c r="E5" s="11">
@@ -933,7 +933,7 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="11">
-        <f>$D$3</f>
+        <f>D5</f>
         <v>86.9</v>
       </c>
       <c r="E6" s="11">
@@ -978,7 +978,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="11">
-        <f>$D$3</f>
+        <f>D6</f>
         <v>86.9</v>
       </c>
       <c r="E7" s="11">
@@ -1023,7 +1023,7 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="11">
-        <f>$D$3</f>
+        <f>D7</f>
         <v>86.9</v>
       </c>
       <c r="E8" s="11">
@@ -1068,7 +1068,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="11">
-        <f>$D$3</f>
+        <f>D8</f>
         <v>86.9</v>
       </c>
       <c r="E9" s="11">
@@ -1113,7 +1113,7 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="11">
-        <f>$D$3</f>
+        <f>D9</f>
         <v>86.9</v>
       </c>
       <c r="E10" s="11">
@@ -1158,7 +1158,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="11">
-        <f>$D$3</f>
+        <f>D10</f>
         <v>86.9</v>
       </c>
       <c r="E11" s="11">
@@ -1203,7 +1203,7 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="11">
-        <f>$D$3</f>
+        <f>D11</f>
         <v>86.9</v>
       </c>
       <c r="E12" s="11">
@@ -1248,7 +1248,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="11">
-        <f>$D$3</f>
+        <f>D12</f>
         <v>86.9</v>
       </c>
       <c r="E13" s="11">
@@ -1293,7 +1293,7 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="11">
-        <f>$D$3</f>
+        <f>D13</f>
         <v>86.9</v>
       </c>
       <c r="E14" s="11">
@@ -1338,7 +1338,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="11">
-        <f>$D$3</f>
+        <f>D14</f>
         <v>86.9</v>
       </c>
       <c r="E15" s="11">
@@ -1383,7 +1383,7 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="11">
-        <f>$D$3</f>
+        <f>D15</f>
         <v>86.9</v>
       </c>
       <c r="E16" s="11">
@@ -1435,7 +1435,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="11">
-        <f>$D$3</f>
+        <f>D16</f>
         <v>86.9</v>
       </c>
       <c r="E17" s="11">
@@ -1487,7 +1487,7 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="11">
-        <f>$D$3</f>
+        <f>D17</f>
         <v>86.9</v>
       </c>
       <c r="E18" s="11">
@@ -1539,7 +1539,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="11">
-        <f>$D$3</f>
+        <f>D18</f>
         <v>86.9</v>
       </c>
       <c r="E19" s="11">
@@ -1591,7 +1591,7 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="11">
-        <f>$D$3</f>
+        <f>D19</f>
         <v>86.9</v>
       </c>
       <c r="E20" s="11">
@@ -1643,7 +1643,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="11">
-        <f>$D$3</f>
+        <f>D20</f>
         <v>86.9</v>
       </c>
       <c r="E21" s="11">
@@ -1695,7 +1695,7 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="11">
-        <f>$D$3</f>
+        <f>D21</f>
         <v>86.9</v>
       </c>
       <c r="E22" s="11">
@@ -1747,7 +1747,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="11">
-        <f>$D$3</f>
+        <f>D22</f>
         <v>86.9</v>
       </c>
       <c r="E23" s="11">
@@ -1799,7 +1799,7 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="11">
-        <f>$D$3</f>
+        <f>D23</f>
         <v>86.9</v>
       </c>
       <c r="E24" s="11">
@@ -1851,7 +1851,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="11">
-        <f>$D$3</f>
+        <f>D24</f>
         <v>86.9</v>
       </c>
       <c r="E25" s="11">
@@ -1903,7 +1903,7 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="11">
-        <f>$D$3</f>
+        <f>D25</f>
         <v>86.9</v>
       </c>
       <c r="E26" s="11">
@@ -1955,7 +1955,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="11">
-        <f>$D$3</f>
+        <f>D26</f>
         <v>86.9</v>
       </c>
       <c r="E27" s="11">
@@ -2007,7 +2007,7 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="11">
-        <f>$D$3</f>
+        <f>D27</f>
         <v>86.9</v>
       </c>
       <c r="E28" s="11">
@@ -2059,7 +2059,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="11">
-        <f>$D$3</f>
+        <f>D28</f>
         <v>86.9</v>
       </c>
       <c r="E29" s="11">
@@ -2111,7 +2111,7 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="11">
-        <f>$D$3</f>
+        <f>D29</f>
         <v>86.9</v>
       </c>
       <c r="E30" s="11">
@@ -2163,7 +2163,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="11">
-        <f>$D$3</f>
+        <f>D30</f>
         <v>86.9</v>
       </c>
       <c r="E31" s="11">
@@ -2215,7 +2215,7 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="11">
-        <f>$D$3</f>
+        <f>D31</f>
         <v>86.9</v>
       </c>
       <c r="E32" s="11">
@@ -2267,7 +2267,7 @@
         <v>55</v>
       </c>
       <c r="D33" s="11">
-        <f>$D$3</f>
+        <f>D32</f>
         <v>86.9</v>
       </c>
       <c r="E33" s="11">
@@ -2319,7 +2319,7 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="11">
-        <f>$D$3</f>
+        <f>D33</f>
         <v>86.9</v>
       </c>
       <c r="E34" s="11">
@@ -2371,7 +2371,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="11">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>43.45</v>
       </c>
       <c r="E35" s="11">
@@ -2423,7 +2423,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="11">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>43.45</v>
       </c>
       <c r="E36" s="11">
@@ -2475,7 +2475,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="11">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>43.45</v>
       </c>
       <c r="E37" s="11">
@@ -2527,7 +2527,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="11">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>43.45</v>
       </c>
       <c r="E38" s="11">
